--- a/readable_data_tables/asia.xlsx
+++ b/readable_data_tables/asia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BCS - Massachusetts Institute of Technology\Fall 2020\9.921 TedLab\here_there_way_over_there\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5C32C-76C7-4230-AD3E-B125106AE4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B60352-D715-4AC1-B845-88F5CB7F89CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="827">
   <si>
     <t>Place</t>
   </si>
@@ -1460,13 +1460,2926 @@
   </si>
   <si>
     <t xml:space="preserve">target </t>
+  </si>
+  <si>
+    <t>Galo (Sino-Tibetan, Tani)</t>
+  </si>
+  <si>
+    <t>jòolo</t>
+  </si>
+  <si>
+    <t>jòolokə̀</t>
+  </si>
+  <si>
+    <t>hogò</t>
+  </si>
+  <si>
+    <t>hokə̀</t>
+  </si>
+  <si>
+    <t>ogò</t>
+  </si>
+  <si>
+    <t>okə́</t>
+  </si>
+  <si>
+    <t>alò</t>
+  </si>
+  <si>
+    <t>akə̀</t>
+  </si>
+  <si>
+    <t>alokə̀</t>
+  </si>
+  <si>
+    <t>allôo</t>
+  </si>
+  <si>
+    <t>allôokə</t>
+  </si>
+  <si>
+    <t>allûu</t>
+  </si>
+  <si>
+    <t>allûukə</t>
+  </si>
+  <si>
+    <t>Hebrew (Afro-Asiatic, Semitic)</t>
+  </si>
+  <si>
+    <t>ʾejfo</t>
+  </si>
+  <si>
+    <t>hexan</t>
+  </si>
+  <si>
+    <t>leʾan</t>
+  </si>
+  <si>
+    <t>lehexan</t>
+  </si>
+  <si>
+    <t>meʾain</t>
+  </si>
+  <si>
+    <t>menain</t>
+  </si>
+  <si>
+    <t>mehexan</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>lexan</t>
+  </si>
+  <si>
+    <t>mikan</t>
+  </si>
+  <si>
+    <t>šam</t>
+  </si>
+  <si>
+    <t>lešam</t>
+  </si>
+  <si>
+    <t>šama</t>
+  </si>
+  <si>
+    <t>mišam</t>
+  </si>
+  <si>
+    <t>D1 = near speaker, D2 = near hearer, D3 = distal I, same level, D4 = distal II, same level, D5 = distal III, same level</t>
+  </si>
+  <si>
+    <t>D1 = unspecified, D2 = proximal, D3 = distal I, D4 = distal II</t>
+  </si>
+  <si>
+    <t>D3 = anaphoric, neutral</t>
+  </si>
+  <si>
+    <t>Hiligaynon (Austronesian, Greater Central Philippine)</t>
+  </si>
+  <si>
+    <t>diin</t>
+  </si>
+  <si>
+    <t>sa diin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diin</t>
+    </r>
+  </si>
+  <si>
+    <t>taga-diin</t>
+  </si>
+  <si>
+    <t>ari</t>
+  </si>
+  <si>
+    <t>diri</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diri</t>
+    </r>
+  </si>
+  <si>
+    <t>taga-diri</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>dira</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dira</t>
+    </r>
+  </si>
+  <si>
+    <t>*taga-dira</t>
+  </si>
+  <si>
+    <t>ato</t>
+  </si>
+  <si>
+    <t>didto</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>didto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taga-didto</t>
+    </r>
+  </si>
+  <si>
+    <t>Hindi (Indo-European, Indo-Iranian)</t>
+  </si>
+  <si>
+    <t>kəhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kəhã </t>
+  </si>
+  <si>
+    <r>
+      <t>kid</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ər</t>
+    </r>
+  </si>
+  <si>
+    <t>kəhã se</t>
+  </si>
+  <si>
+    <t>yəhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yəhã </t>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ər</t>
+    </r>
+  </si>
+  <si>
+    <t>yəhã se</t>
+  </si>
+  <si>
+    <t>vəhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vəhã </t>
+  </si>
+  <si>
+    <r>
+      <t>ud</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ər</t>
+    </r>
+  </si>
+  <si>
+    <t>vəhã se</t>
+  </si>
+  <si>
+    <t>Hmong Njua (Hmong-Mien, Chuanqiandian)</t>
+  </si>
+  <si>
+    <t>hǎo tẘ</t>
+  </si>
+  <si>
+    <t>tẘ</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tẘ</t>
+    </r>
+  </si>
+  <si>
+    <t>nda᷉w nǔa</t>
+  </si>
+  <si>
+    <t>nǔa</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nda᷉w nǔa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǔa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hǎo ndǎw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndǎw</t>
+    </r>
+  </si>
+  <si>
+    <t>Iloko (Austronesian, Northern Luzon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadino </t>
+  </si>
+  <si>
+    <t>ayan</t>
+  </si>
+  <si>
+    <t>sadino</t>
+  </si>
+  <si>
+    <t>ditoy</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ditoy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manipud ditoy</t>
+    </r>
+  </si>
+  <si>
+    <t>dita</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manipud dita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sadiay</t>
+    </r>
+  </si>
+  <si>
+    <t>idiay</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sadiay </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idiay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manipud sadiay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manipud idiay</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">D1 = near speaker, D2 = near hearer, D3 = away from both
+</t>
+  </si>
+  <si>
+    <t>Japanese (Japonic)</t>
+  </si>
+  <si>
+    <t>doko</t>
+  </si>
+  <si>
+    <t>doko ni</t>
+  </si>
+  <si>
+    <t>doko de</t>
+  </si>
+  <si>
+    <t>dochira</t>
+  </si>
+  <si>
+    <t>dochira ni</t>
+  </si>
+  <si>
+    <t>dochira de</t>
+  </si>
+  <si>
+    <t>doko e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doko ni </t>
+  </si>
+  <si>
+    <t>dochira e</t>
+  </si>
+  <si>
+    <t>doko kara</t>
+  </si>
+  <si>
+    <t>dochira kara</t>
+  </si>
+  <si>
+    <t>koko</t>
+  </si>
+  <si>
+    <t>koko ni</t>
+  </si>
+  <si>
+    <t>koko de</t>
+  </si>
+  <si>
+    <t>kochira</t>
+  </si>
+  <si>
+    <t>kochira ni</t>
+  </si>
+  <si>
+    <t>kochira de</t>
+  </si>
+  <si>
+    <t>koko e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koko ni </t>
+  </si>
+  <si>
+    <t>kochira e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koko kara </t>
+  </si>
+  <si>
+    <t>kochira kara</t>
+  </si>
+  <si>
+    <t>soko</t>
+  </si>
+  <si>
+    <t>soko ni</t>
+  </si>
+  <si>
+    <t>soko de</t>
+  </si>
+  <si>
+    <t>sochira</t>
+  </si>
+  <si>
+    <t>sochira ni</t>
+  </si>
+  <si>
+    <t>sochira de</t>
+  </si>
+  <si>
+    <t>soko e</t>
+  </si>
+  <si>
+    <t>sochira e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soko kara </t>
+  </si>
+  <si>
+    <t>sochira kara</t>
+  </si>
+  <si>
+    <t>asoko</t>
+  </si>
+  <si>
+    <t>asoko ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asoko de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">achira </t>
+  </si>
+  <si>
+    <t>achira ni</t>
+  </si>
+  <si>
+    <t>achira de</t>
+  </si>
+  <si>
+    <t>asoko e</t>
+  </si>
+  <si>
+    <t>achira e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asoko kara </t>
+  </si>
+  <si>
+    <t>achira kara</t>
+  </si>
+  <si>
+    <t>Khasi (Austroasiatic, Khasi-Palaung)</t>
+  </si>
+  <si>
+    <t>hangno</t>
+  </si>
+  <si>
+    <t>haei</t>
+  </si>
+  <si>
+    <t>shano</t>
+  </si>
+  <si>
+    <t>shaei</t>
+  </si>
+  <si>
+    <t>nangno</t>
+  </si>
+  <si>
+    <t>naei</t>
+  </si>
+  <si>
+    <t>hangne</t>
+  </si>
+  <si>
+    <t>shane</t>
+  </si>
+  <si>
+    <t>nangne</t>
+  </si>
+  <si>
+    <t>hangto</t>
+  </si>
+  <si>
+    <t>*hangto</t>
+  </si>
+  <si>
+    <t>*shato</t>
+  </si>
+  <si>
+    <t>nangto</t>
+  </si>
+  <si>
+    <t>hangtai</t>
+  </si>
+  <si>
+    <t>shatai</t>
+  </si>
+  <si>
+    <t>nangtai</t>
+  </si>
+  <si>
+    <t>hangta</t>
+  </si>
+  <si>
+    <t>shata</t>
+  </si>
+  <si>
+    <t>nangta</t>
+  </si>
+  <si>
+    <t>Khmer (Austroasiatic, Khmeric)</t>
+  </si>
+  <si>
+    <t>na:</t>
+  </si>
+  <si>
+    <t>aena:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na: </t>
+  </si>
+  <si>
+    <t>pi: na:</t>
+  </si>
+  <si>
+    <t>pi: ae na:</t>
+  </si>
+  <si>
+    <t>nih</t>
+  </si>
+  <si>
+    <t>ae nih</t>
+  </si>
+  <si>
+    <t>ti: nih</t>
+  </si>
+  <si>
+    <t>pi: nih</t>
+  </si>
+  <si>
+    <t>pi: ae nih</t>
+  </si>
+  <si>
+    <t>pi: ti: nih</t>
+  </si>
+  <si>
+    <t>nuh</t>
+  </si>
+  <si>
+    <t>ae nuh</t>
+  </si>
+  <si>
+    <t>ti: nuh</t>
+  </si>
+  <si>
+    <t>pi: nuh</t>
+  </si>
+  <si>
+    <t>pi: ae nuh</t>
+  </si>
+  <si>
+    <t>pi: ti: nuh</t>
+  </si>
+  <si>
+    <t>Koḍava (Dravidian)</t>
+  </si>
+  <si>
+    <t>elli</t>
+  </si>
+  <si>
+    <t>etti</t>
+  </si>
+  <si>
+    <t>ettati</t>
+  </si>
+  <si>
+    <t>ellinji</t>
+  </si>
+  <si>
+    <t>illi</t>
+  </si>
+  <si>
+    <t>ittï</t>
+  </si>
+  <si>
+    <t>ittati</t>
+  </si>
+  <si>
+    <t>illinji</t>
+  </si>
+  <si>
+    <t>alli</t>
+  </si>
+  <si>
+    <t>attï</t>
+  </si>
+  <si>
+    <t>attati</t>
+  </si>
+  <si>
+    <t>allinji</t>
+  </si>
+  <si>
+    <t>Korean (Koreanic)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ǒdi </t>
+    </r>
+  </si>
+  <si>
+    <t>ǒdi-e</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ǒdi-ro </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ǒdi-esǒ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yǒgi </t>
+  </si>
+  <si>
+    <t>yǒgi-e</t>
+  </si>
+  <si>
+    <t>yǒgi-ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yǒgi-e  </t>
+  </si>
+  <si>
+    <t>yǒgi-esǒ</t>
+  </si>
+  <si>
+    <t>kǒgi</t>
+  </si>
+  <si>
+    <t>kǒgi-e</t>
+  </si>
+  <si>
+    <t>kǒgi-ro</t>
+  </si>
+  <si>
+    <t>kǒgi-esǒ</t>
+  </si>
+  <si>
+    <t>chǒgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chǒgi-e </t>
+  </si>
+  <si>
+    <t>chǒgi-ro</t>
+  </si>
+  <si>
+    <t>chǒgi-e</t>
+  </si>
+  <si>
+    <t>chǒgi-esǒ</t>
+  </si>
+  <si>
+    <t>Lamut (Tungusic)</t>
+  </si>
+  <si>
+    <t>awug</t>
+  </si>
+  <si>
+    <t>awuskī</t>
+  </si>
+  <si>
+    <t>awgīc</t>
+  </si>
+  <si>
+    <t>ələ̅</t>
+  </si>
+  <si>
+    <t>əwəski </t>
+  </si>
+  <si>
+    <t>ərtəki</t>
+  </si>
+  <si>
+    <t>ərgic</t>
+  </si>
+  <si>
+    <t>tawaski</t>
+  </si>
+  <si>
+    <t>tartaki</t>
+  </si>
+  <si>
+    <t>targic</t>
+  </si>
+  <si>
+    <t>Lao (Tai-Kadai, Daic)</t>
+  </si>
+  <si>
+    <t>saj3</t>
+  </si>
+  <si>
+    <t>tèè1 saj3</t>
+  </si>
+  <si>
+    <t>nii4</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tèè1 nii4</t>
+    </r>
+  </si>
+  <si>
+    <t>phi4</t>
+  </si>
+  <si>
+    <t>*tèè1 phi4</t>
+  </si>
+  <si>
+    <t>nan4</t>
+  </si>
+  <si>
+    <t>*nan4</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tèè1 nan4</t>
+    </r>
+  </si>
+  <si>
+    <t>han5</t>
+  </si>
+  <si>
+    <t>*tèè1 han5</t>
+  </si>
+  <si>
+    <t>phun5</t>
+  </si>
+  <si>
+    <t>tèè1 phun5</t>
+  </si>
+  <si>
+    <t>D1 = unmarked, D2 = proximal, D3 = non-proximal, D4 = distal I, D5 = distal II</t>
+  </si>
+  <si>
+    <t>Limbu (Sino-Tibetan, Kiranti)</t>
+  </si>
+  <si>
+    <t>a·tto·</t>
+  </si>
+  <si>
+    <t>a·tto·-nu</t>
+  </si>
+  <si>
+    <t>a·tto·-lam</t>
+  </si>
+  <si>
+    <t>kɔɁo·</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kɔtna </t>
+  </si>
+  <si>
+    <t>kɔɁo·-nu</t>
+  </si>
+  <si>
+    <t>*kɔɁo·-lam</t>
+  </si>
+  <si>
+    <t>khɛɁo·</t>
+  </si>
+  <si>
+    <t>khɛtna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khɛɁo·-nu </t>
+  </si>
+  <si>
+    <t>khɛɁo·-lam</t>
+  </si>
+  <si>
+    <t>na·</t>
+  </si>
+  <si>
+    <t>na·-nu</t>
+  </si>
+  <si>
+    <t>Malayalam (Dravidian)</t>
+  </si>
+  <si>
+    <t>eviTe</t>
+  </si>
+  <si>
+    <t>eviTe ninnE</t>
+  </si>
+  <si>
+    <t>iviTe</t>
+  </si>
+  <si>
+    <t>iviTe ninnE</t>
+  </si>
+  <si>
+    <t>aviTe</t>
+  </si>
+  <si>
+    <t>aviTe ninnE</t>
+  </si>
+  <si>
+    <t>Manchu (Tungusic)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aibade</t>
+    </r>
+  </si>
+  <si>
+    <t>aibide</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ya de</t>
+    </r>
+  </si>
+  <si>
+    <t>yabade</t>
+  </si>
+  <si>
+    <t>absi</t>
+  </si>
+  <si>
+    <t>yabaci</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aibaci </t>
+    </r>
+  </si>
+  <si>
+    <t>aibici</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aibideri</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yaci </t>
+    </r>
+  </si>
+  <si>
+    <t>ubade</t>
+  </si>
+  <si>
+    <t>ebsi</t>
+  </si>
+  <si>
+    <t>ubaci</t>
+  </si>
+  <si>
+    <t>tubade</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>casi</t>
+    </r>
+  </si>
+  <si>
+    <t>tubaci</t>
+  </si>
+  <si>
+    <t>Mualang (Austronesian, Malayo-Sumbawan)</t>
+  </si>
+  <si>
+    <t>dini</t>
+  </si>
+  <si>
+    <t>kikay</t>
+  </si>
+  <si>
+    <t>ari ni</t>
+  </si>
+  <si>
+    <t>reni</t>
+  </si>
+  <si>
+    <t>ditu’</t>
+  </si>
+  <si>
+    <t>kitu’</t>
+  </si>
+  <si>
+    <t>ari tu’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dia’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kia’ </t>
+  </si>
+  <si>
+    <t>ari nya’</t>
+  </si>
+  <si>
+    <t>ari ia’</t>
+  </si>
+  <si>
+    <t>ari dia’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">din </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kin </t>
+  </si>
+  <si>
+    <t>ari nyin</t>
+  </si>
+  <si>
+    <t>Muna (Austronesian, Celebic)</t>
+  </si>
+  <si>
+    <t>hamai</t>
+  </si>
+  <si>
+    <t>hamadi</t>
+  </si>
+  <si>
+    <t>ne hamai</t>
+  </si>
+  <si>
+    <t>ne hamadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne ini </t>
+  </si>
+  <si>
+    <t>we ini</t>
+  </si>
+  <si>
+    <t>ne itu</t>
+  </si>
+  <si>
+    <t>ne maitu</t>
+  </si>
+  <si>
+    <t>ne watu</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>ne nagha</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>ne waghaitu</t>
+  </si>
+  <si>
+    <t>D1 = near speaker, unmarked, D2 = near speaker, neutral, D3 = near hearer, D4 = away from both, proximal, D5 = away from both, distal, neutral, D6 = away from both, invisible, D7 = away from both, past visible</t>
+  </si>
+  <si>
+    <t>Mundari (Austroasiatic, Mundaic)</t>
+  </si>
+  <si>
+    <t>okore</t>
+  </si>
+  <si>
+    <t>okote</t>
+  </si>
+  <si>
+    <t>okoate</t>
+  </si>
+  <si>
+    <t>nere</t>
+  </si>
+  <si>
+    <t>nete</t>
+  </si>
+  <si>
+    <t>neate</t>
+  </si>
+  <si>
+    <t>enre</t>
+  </si>
+  <si>
+    <t>ente</t>
+  </si>
+  <si>
+    <t>enate</t>
+  </si>
+  <si>
+    <t>hanre</t>
+  </si>
+  <si>
+    <t>hante</t>
+  </si>
+  <si>
+    <t>hanete</t>
+  </si>
+  <si>
+    <t>Nicobarese, Car (Austroasiatic, Nicobaric)</t>
+  </si>
+  <si>
+    <t>isuh</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <r>
+      <t>aṅ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yih</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ṙā-ang yih </t>
+  </si>
+  <si>
+    <t>ṙeū-eung yih</t>
+  </si>
+  <si>
+    <t>ṙama-ang yih</t>
+  </si>
+  <si>
+    <t>(i)hih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(i)hih </t>
+  </si>
+  <si>
+    <t>ṙā-ang (i)hih</t>
+  </si>
+  <si>
+    <t>ṙeū-eung (i)hih</t>
+  </si>
+  <si>
+    <t>ṙama-ang (i)hih</t>
+  </si>
+  <si>
+    <t>(u)muh</t>
+  </si>
+  <si>
+    <t>ṙā-ang (u)muh</t>
+  </si>
+  <si>
+    <t>ṙeū-eung (u)muh</t>
+  </si>
+  <si>
+    <t>ṙama-ang (u)muh</t>
+  </si>
+  <si>
+    <t>Ostyak (Uralic, Khantyic)</t>
+  </si>
+  <si>
+    <t>kot</t>
+  </si>
+  <si>
+    <t>kǒl</t>
+  </si>
+  <si>
+    <t>kǒlə̂pa</t>
+  </si>
+  <si>
+    <t>kol’t’ə̂ɣ</t>
+  </si>
+  <si>
+    <r>
+      <t>tət</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>tim tăɣi͜nə̑</t>
+  </si>
+  <si>
+    <r>
+      <t>təɣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tək</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>təɣəpä</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>təlpilt</t>
+    </r>
+  </si>
+  <si>
+    <t>təltöɣ</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>taɣə̑pa</t>
+  </si>
+  <si>
+    <r>
+      <t>tŏɣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>tŏɣə̑pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taltə̑ɣ </t>
+  </si>
+  <si>
+    <t>taltoɣ</t>
+  </si>
+  <si>
+    <r>
+      <t>tŏltə̑ɣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Panjabi (Indo-European, Indo-Iranian)</t>
+  </si>
+  <si>
+    <t>kithē</t>
+  </si>
+  <si>
+    <t>kidhara</t>
+  </si>
+  <si>
+    <t>kithōṁ</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aithē</t>
+    </r>
+  </si>
+  <si>
+    <t>ēthē</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ēthē</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aidhara</t>
+    </r>
+  </si>
+  <si>
+    <t>ēdhara</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aithōṁ</t>
+    </r>
+  </si>
+  <si>
+    <t>ēthōṁ</t>
+  </si>
+  <si>
+    <t>uthē</t>
+  </si>
+  <si>
+    <t>ōdhara</t>
+  </si>
+  <si>
+    <t>uthōṁ</t>
+  </si>
+  <si>
+    <t>Persian (Indo-European, Indo-Iranian)</t>
+  </si>
+  <si>
+    <t>koja</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be koja</t>
+    </r>
+  </si>
+  <si>
+    <t>æz koja</t>
+  </si>
+  <si>
+    <t>inja</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be inja</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>æz inja</t>
+    </r>
+  </si>
+  <si>
+    <t>unja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unja </t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be unja</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>æz unja</t>
+    </r>
+  </si>
+  <si>
+    <t>Santali (Austroasiatic, Mundaic)</t>
+  </si>
+  <si>
+    <t>okare(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>okate(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>oka khon(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>nonḍe(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>nonḍe khon(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>onḍe(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>onḍe khon(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>hanḍe(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>*hanḍe khon(-&lt;X&gt;)</t>
+  </si>
+  <si>
+    <t>Tagalog (Austronesian, Greater Central Philippine)</t>
+  </si>
+  <si>
+    <t>saan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">saan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nasaan
+saan naroon</t>
+    </r>
+  </si>
+  <si>
+    <t>D1 = near speaker, D2 = near hearer, D3 = away from both</t>
+  </si>
+  <si>
+    <t>italic: 'DEM' category; bald + italic: 'ADV' category</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dito
+rito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nandito 
+narito 
+naririto nandidito</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diyan
+riyan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nandiyan 
+nariyan 
+naririyan  
+nandidiyan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">doon
+roon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nandoon 
+naroon 
+naruroon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dito
+rito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pumarito</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diyan
+riyan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pumariyan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">doon
+roon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pumaroon</t>
+    </r>
+  </si>
+  <si>
+    <t>saan
+buhat saan
+mula saan
+taga-saan</t>
+  </si>
+  <si>
+    <t>dito 
+buhat dito
+mula dito
+rito
+buhat rito
+mula rito</t>
+  </si>
+  <si>
+    <t>diyan
+buhat diyan
+mula diyan
+riyan
+buhat riyan
+mula riyan</t>
+  </si>
+  <si>
+    <t>doon
+buhat doon 
+mula doon
+roon
+buhat roon
+mula roon</t>
+  </si>
+  <si>
+    <t>Tamil (Dravidian)</t>
+  </si>
+  <si>
+    <t>engee</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>engeyrundu</t>
+    </r>
+  </si>
+  <si>
+    <t>ingee</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingeyrundu</t>
+    </r>
+  </si>
+  <si>
+    <t>angee</t>
+  </si>
+  <si>
+    <t>angeyrundu</t>
+  </si>
+  <si>
+    <t>Telugu (Dravidian)</t>
+  </si>
+  <si>
+    <t>ekkaDa</t>
+  </si>
+  <si>
+    <t>ekkaDiki</t>
+  </si>
+  <si>
+    <t>ekkaDinunci</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ekkaDanunDi</t>
+    </r>
+  </si>
+  <si>
+    <t>ikkaDa</t>
+  </si>
+  <si>
+    <t>ikkaDiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikkaDinunci </t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ikkaDanunDi</t>
+    </r>
+  </si>
+  <si>
+    <t>akkaDa</t>
+  </si>
+  <si>
+    <t>akkaDiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akkaDanunci </t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>akkaDanunDi</t>
+    </r>
+  </si>
+  <si>
+    <t>Temiar (Austroasiatic, Aslian)</t>
+  </si>
+  <si>
+    <t>lɔ̄ʔ</t>
+  </si>
+  <si>
+    <t>Ɂɛn-lɔ̄ʔ</t>
+  </si>
+  <si>
+    <t>ma-lɔ̄ʔ</t>
+  </si>
+  <si>
+    <t>num-lɔ̄ʔ</t>
+  </si>
+  <si>
+    <t>doh</t>
+  </si>
+  <si>
+    <t>Ɂɛn-doh</t>
+  </si>
+  <si>
+    <t>ma-doh</t>
+  </si>
+  <si>
+    <t>num-doh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naɁ </t>
+  </si>
+  <si>
+    <t>Ɂɛn-naɁ</t>
+  </si>
+  <si>
+    <t>ma-naɁ</t>
+  </si>
+  <si>
+    <t>num-naɁ</t>
+  </si>
+  <si>
+    <t>Thai (Tai-Kadai, Daic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǎy </t>
+  </si>
+  <si>
+    <t>thîi nǎy</t>
+  </si>
+  <si>
+    <t>càak nǎy</t>
+  </si>
+  <si>
+    <t>thîi nîi</t>
+  </si>
+  <si>
+    <t>càak nîi</t>
+  </si>
+  <si>
+    <t>thîi nân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thîi nân </t>
+  </si>
+  <si>
+    <t>càak thîi nân</t>
+  </si>
+  <si>
+    <t>thîi nôon</t>
+  </si>
+  <si>
+    <t>*thîi nôon</t>
+  </si>
+  <si>
+    <t>*càak thîi nôon</t>
+  </si>
+  <si>
+    <t>Tuvinian (Turkic)</t>
+  </si>
+  <si>
+    <t>kayda</t>
+  </si>
+  <si>
+    <t>kayaa</t>
+  </si>
+  <si>
+    <t>kaynaar</t>
+  </si>
+  <si>
+    <t>kayɨɨn</t>
+  </si>
+  <si>
+    <t>kayɨɨrtan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mɨnda </t>
+  </si>
+  <si>
+    <t>bortta</t>
+  </si>
+  <si>
+    <t>mɨnaar</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>ɨnda</t>
+  </si>
+  <si>
+    <t>oortta</t>
+  </si>
+  <si>
+    <t>ɨnaar</t>
+  </si>
+  <si>
+    <t>oon</t>
+  </si>
+  <si>
+    <t>oortan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">döö </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɨnda</t>
+    </r>
+  </si>
+  <si>
+    <t>döönde</t>
+  </si>
+  <si>
+    <t>duunda</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>döön</t>
+  </si>
+  <si>
+    <t>Udihe (Tungusic)</t>
+  </si>
+  <si>
+    <t>j’e-du</t>
+  </si>
+  <si>
+    <t>j’e-le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j’e-uxi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">j‘e-digi </t>
+  </si>
+  <si>
+    <t>o-du</t>
+  </si>
+  <si>
+    <t>o-lo</t>
+  </si>
+  <si>
+    <t>te:ti-le</t>
+  </si>
+  <si>
+    <t>a-uxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i-tigi </t>
+  </si>
+  <si>
+    <t>o-digi</t>
+  </si>
+  <si>
+    <t>(u)ta-du</t>
+  </si>
+  <si>
+    <t>(u)ta-la</t>
+  </si>
+  <si>
+    <t>ta:ti-le</t>
+  </si>
+  <si>
+    <t>(u)ta-uxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(u)ta-tigi </t>
+  </si>
+  <si>
+    <t>(u)ta-digi</t>
+  </si>
+  <si>
+    <t>Vietnamese (Austroasiatic, Vietic)</t>
+  </si>
+  <si>
+    <t>đâu</t>
+  </si>
+  <si>
+    <t>ở đâu</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại đâu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>từ đâu</t>
+    </r>
+  </si>
+  <si>
+    <t>đây</t>
+  </si>
+  <si>
+    <t>ở đây</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại đây</t>
+    </r>
+  </si>
+  <si>
+    <t>từ đây</t>
+  </si>
+  <si>
+    <t>đấy</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ở đấy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại đấy</t>
+    </r>
+  </si>
+  <si>
+    <t>đó</t>
+  </si>
+  <si>
+    <t>ở đó</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ở kia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại kia</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">*đó </t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>từ đấy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>từ đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>từ kia</t>
+    </r>
+  </si>
+  <si>
+    <t>Vogul (Uralic, Mansi)</t>
+  </si>
+  <si>
+    <t>χōt</t>
+  </si>
+  <si>
+    <t>χotal’</t>
+  </si>
+  <si>
+    <t>χotəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tit </t>
+  </si>
+  <si>
+    <t>ti͜ɣ</t>
+  </si>
+  <si>
+    <t>ti͜ɣl</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>tuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuwl’e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuwl </t>
+  </si>
+  <si>
+    <t>Wa (Austroasiatic, Palaungic)</t>
+  </si>
+  <si>
+    <t>dee mawx</t>
+  </si>
+  <si>
+    <t>khaing dee mawx</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>khaing tin</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>khaing tan</t>
+  </si>
+  <si>
+    <t>tio</t>
+  </si>
+  <si>
+    <t>tɛ</t>
+  </si>
+  <si>
+    <t>khaing tio</t>
+  </si>
+  <si>
+    <t>khaing tɛ</t>
+  </si>
+  <si>
+    <t>Yugh (Yeniseian)</t>
+  </si>
+  <si>
+    <r>
+      <t>bisa</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:ŋ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>birɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:š</t>
+    </r>
+  </si>
+  <si>
+    <t>birɨ:r</t>
+  </si>
+  <si>
+    <t>birə:r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kidagej </t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kinʼ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kinʼɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:š </t>
+    </r>
+  </si>
+  <si>
+    <t>ʌgej</t>
+  </si>
+  <si>
+    <t>kinʼi˙r</t>
+  </si>
+  <si>
+    <t>kinʼə:r</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tunʼ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tunʼɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:š</t>
+    </r>
+  </si>
+  <si>
+    <t>tunʼɨ·r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadagej </t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kanʼɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:š</t>
+    </r>
+  </si>
+  <si>
+    <t>kanʼɨ˙r</t>
+  </si>
+  <si>
+    <t>kanʼə:r</t>
+  </si>
+  <si>
+    <t>Yukaghir, Kolyma (Yukaghir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qo-n </t>
+  </si>
+  <si>
+    <t>qaduon-ge</t>
+  </si>
+  <si>
+    <t>qa-ŋide</t>
+  </si>
+  <si>
+    <t>qajde</t>
+  </si>
+  <si>
+    <t>qo-t</t>
+  </si>
+  <si>
+    <t>qadōn-get</t>
+  </si>
+  <si>
+    <t>tī</t>
+  </si>
+  <si>
+    <t>ti-ŋide</t>
+  </si>
+  <si>
+    <t>tī-t</t>
+  </si>
+  <si>
+    <t>adā</t>
+  </si>
+  <si>
+    <t>ada-ŋide</t>
+  </si>
+  <si>
+    <t>adi-ŋide</t>
+  </si>
+  <si>
+    <t>adā-t</t>
+  </si>
+  <si>
+    <t>tā</t>
+  </si>
+  <si>
+    <t>tā-ŋide</t>
+  </si>
+  <si>
+    <t>tā-t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +4449,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1660,7 +4590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1680,9 +4610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1690,15 +4617,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,22 +4634,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,6 +4650,90 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2029,18 +5016,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A120"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="95.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2060,11 +5048,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2081,7 +5069,7 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2164,16 +5152,16 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2181,23 +5169,23 @@
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -2233,24 +5221,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2263,11 +5251,11 @@
       <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2280,11 +5268,11 @@
       <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2305,24 +5293,24 @@
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
@@ -2337,9 +5325,9 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
@@ -2348,10 +5336,10 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2365,8 +5353,8 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="3" t="s">
         <v>60</v>
       </c>
@@ -2378,8 +5366,8 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2391,10 +5379,10 @@
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2408,8 +5396,8 @@
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="3" t="s">
         <v>67</v>
       </c>
@@ -2417,12 +5405,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="4" t="s">
         <v>68</v>
       </c>
@@ -2434,54 +5422,54 @@
       <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="6" t="s">
         <v>79</v>
       </c>
@@ -2499,7 +5487,7 @@
       <c r="D30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2507,16 +5495,16 @@
       <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2524,20 +5512,20 @@
       <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2546,28 +5534,28 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2576,207 +5564,210 @@
       <c r="D35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="24" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2784,27 +5775,27 @@
       <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2812,23 +5803,23 @@
       <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -2851,16 +5842,16 @@
       <c r="A55" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2868,27 +5859,27 @@
       <c r="A56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="24" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2896,27 +5887,27 @@
       <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="24" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2924,27 +5915,27 @@
       <c r="A60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="24" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2952,18 +5943,18 @@
       <c r="A62" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -2980,7 +5971,7 @@
       <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="3" t="s">
         <v>147</v>
       </c>
@@ -2995,51 +5986,51 @@
       <c r="A65" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="25"/>
+      <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="25"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3047,27 +6038,27 @@
       <c r="A69" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="27" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3075,12 +6066,12 @@
       <c r="A71" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3089,13 +6080,13 @@
       <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="10" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3103,16 +6094,16 @@
       <c r="A73" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="24" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3120,27 +6111,27 @@
       <c r="A74" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3148,27 +6139,27 @@
       <c r="A76" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3176,14 +6167,14 @@
       <c r="A78" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3191,74 +6182,74 @@
       <c r="A79" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="26"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="25"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="25"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="16"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="15" t="s">
         <v>187</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="3" t="s">
         <v>188</v>
       </c>
@@ -3269,40 +6260,40 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="15" t="s">
         <v>189</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="26"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="15" t="s">
         <v>196</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -3312,11 +6303,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="3" t="s">
         <v>197</v>
       </c>
@@ -3327,83 +6318,86 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="15" t="s">
         <v>198</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>205</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="20"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="6" t="s">
         <v>212</v>
       </c>
@@ -3411,14 +6405,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>205</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -3428,12 +6422,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="12"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="3" t="s">
         <v>217</v>
       </c>
@@ -3445,21 +6439,21 @@
       <c r="A97" t="s">
         <v>205</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="24" t="s">
         <v>221</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -3473,8 +6467,8 @@
       <c r="A99" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="4" t="s">
         <v>223</v>
       </c>
@@ -3486,16 +6480,16 @@
       <c r="A100" t="s">
         <v>205</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="13" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3503,14 +6497,14 @@
       <c r="A101" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="17" t="s">
+      <c r="B101" s="22"/>
+      <c r="C101" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="13" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3518,9 +6512,9 @@
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="6" t="s">
         <v>232</v>
       </c>
@@ -3529,16 +6523,16 @@
       <c r="A103" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="24" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3546,20 +6540,20 @@
       <c r="A104" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E104" s="13"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -3568,7 +6562,7 @@
       <c r="D105" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="29" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3576,20 +6570,20 @@
       <c r="A106" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="30"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -3598,7 +6592,7 @@
       <c r="D107" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="24" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3606,29 +6600,29 @@
       <c r="A108" t="s">
         <v>234</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E108" s="13"/>
+      <c r="E108" s="26"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="27" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3636,29 +6630,29 @@
       <c r="A110" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="6" t="s">
         <v>245</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E110" s="20"/>
+      <c r="E110" s="28"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>247</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3666,8 +6660,8 @@
       <c r="A112" t="s">
         <v>247</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="13"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="4" t="s">
         <v>250</v>
       </c>
@@ -3675,14 +6669,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="24" t="s">
         <v>253</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -3692,12 +6686,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="12"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="3" t="s">
         <v>254</v>
       </c>
@@ -3705,151 +6699,4294 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>247</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="12"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E115" s="25"/>
-    </row>
-    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E115" s="16"/>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="26"/>
       <c r="D116" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E116" s="16"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="28" t="s">
+      <c r="B118" s="22"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>247</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="28" t="s">
+      <c r="B119" s="22"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="25"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="29" t="s">
+      <c r="B120" s="23"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E120" s="16"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="23"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="23"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="23"/>
+      <c r="C136" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>299</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" s="23"/>
+      <c r="C138" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D138" s="30"/>
+      <c r="E138" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="23"/>
+      <c r="C140" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" s="35"/>
+      <c r="E140" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>299</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" s="23"/>
+      <c r="C142" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" s="26"/>
+      <c r="E142" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" s="23"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>316</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146" s="23"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>316</v>
+      </c>
+      <c r="B148" s="23"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>329</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="23"/>
+      <c r="C150" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>329</v>
+      </c>
+      <c r="B152" s="23"/>
+      <c r="C152" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" s="23"/>
+      <c r="C154" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F155" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="23"/>
+      <c r="C156" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+    </row>
+    <row r="157" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="23"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="23"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="23"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>356</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>356</v>
+      </c>
+      <c r="B166" s="22"/>
+      <c r="C166" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>356</v>
+      </c>
+      <c r="B169" s="22"/>
+      <c r="C169" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E169" s="16"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>356</v>
+      </c>
+      <c r="B170" s="23"/>
+      <c r="C170" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>356</v>
+      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="17"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="22"/>
+      <c r="C175" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E175" s="16"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" s="23"/>
+      <c r="C176" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="22"/>
+      <c r="C180" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="22"/>
+      <c r="C181" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E181" s="38"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="23"/>
+      <c r="C182" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>356</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>356</v>
+      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E184" s="17"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" s="22"/>
+      <c r="C185" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>356</v>
+      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E187" s="16"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>356</v>
+      </c>
+      <c r="B188" s="23"/>
+      <c r="C188" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>399</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>399</v>
+      </c>
+      <c r="B190" s="22"/>
+      <c r="C190" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>399</v>
+      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>399</v>
+      </c>
+      <c r="B192" s="23"/>
+      <c r="C192" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>399</v>
+      </c>
+      <c r="B194" s="23"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E194" s="26"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>399</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>399</v>
+      </c>
+      <c r="B196" s="23"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E196" s="28"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>399</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>399</v>
+      </c>
+      <c r="B198" s="23"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E198" s="26"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>399</v>
+      </c>
+      <c r="B200" s="23"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E200" s="28"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>419</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>419</v>
+      </c>
+      <c r="B202" s="23"/>
+      <c r="C202" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>419</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>419</v>
+      </c>
+      <c r="B204" s="22"/>
+      <c r="C204" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>419</v>
+      </c>
+      <c r="B205" s="23"/>
+      <c r="C205" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="B207" s="22"/>
+      <c r="C207" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>419</v>
+      </c>
+      <c r="B208" s="23"/>
+      <c r="C208" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>437</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>437</v>
+      </c>
+      <c r="B210" s="23"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>437</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>437</v>
+      </c>
+      <c r="B212" s="23"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E212" s="26"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>437</v>
+      </c>
+      <c r="B213" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" s="23"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E214" s="26"/>
+    </row>
+    <row r="215" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D215" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E215" s="29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>450</v>
+      </c>
+      <c r="B216" s="23"/>
+      <c r="C216" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E216" s="30"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>450</v>
+      </c>
+      <c r="B217" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>450</v>
+      </c>
+      <c r="B218" s="23"/>
+      <c r="C218" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E218" s="26"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>450</v>
+      </c>
+      <c r="B219" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>450</v>
+      </c>
+      <c r="B220" s="23"/>
+      <c r="C220" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E220" s="26"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>450</v>
+      </c>
+      <c r="B221" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E221" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222" s="23"/>
+      <c r="C222" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E222" s="28"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>469</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>469</v>
+      </c>
+      <c r="B224" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>469</v>
+      </c>
+      <c r="B225" s="23"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E225" s="26"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>469</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>469</v>
+      </c>
+      <c r="B227" s="23"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E227" s="26"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>480</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F228" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>480</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>480</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E231" s="36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>480</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>480</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>495</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>495</v>
+      </c>
+      <c r="B235" s="23"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>495</v>
+      </c>
+      <c r="B236" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>495</v>
+      </c>
+      <c r="B237" s="23"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>495</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>495</v>
+      </c>
+      <c r="B239" s="23"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>495</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>509</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>509</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>509</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>516</v>
+      </c>
+      <c r="B244" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D244" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="E244" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>516</v>
+      </c>
+      <c r="B245" s="22"/>
+      <c r="C245" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>516</v>
+      </c>
+      <c r="B246" s="22"/>
+      <c r="C246" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>516</v>
+      </c>
+      <c r="B247" s="22"/>
+      <c r="C247" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="D247" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>516</v>
+      </c>
+      <c r="B248" s="22"/>
+      <c r="C248" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E248" s="16"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>516</v>
+      </c>
+      <c r="B249" s="22"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E249" s="16"/>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>516</v>
+      </c>
+      <c r="B250" s="23"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>516</v>
+      </c>
+      <c r="B251" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>516</v>
+      </c>
+      <c r="B252" s="23"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E252" s="26"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>516</v>
+      </c>
+      <c r="B253" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>516</v>
+      </c>
+      <c r="B254" s="23"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E254" s="26"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>534</v>
+      </c>
+      <c r="B255" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D255" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>534</v>
+      </c>
+      <c r="B256" s="23"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>534</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>534</v>
+      </c>
+      <c r="B258" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>534</v>
+      </c>
+      <c r="B259" s="22"/>
+      <c r="C259" s="31"/>
+      <c r="D259" s="31"/>
+      <c r="E259" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>534</v>
+      </c>
+      <c r="B260" s="23"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>534</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>550</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>550</v>
+      </c>
+      <c r="B263" s="22"/>
+      <c r="C263" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>550</v>
+      </c>
+      <c r="B264" s="22"/>
+      <c r="C264" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>550</v>
+      </c>
+      <c r="B265" s="23"/>
+      <c r="C265" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>550</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>550</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>550</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>550</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>550</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>550</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>550</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>565</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>565</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>565</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>565</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>578</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="D277" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="E277" s="40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>578</v>
+      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="25"/>
+      <c r="E278" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>578</v>
+      </c>
+      <c r="B279" s="22"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="25"/>
+      <c r="E279" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>578</v>
+      </c>
+      <c r="B280" s="23"/>
+      <c r="C280" s="26"/>
+      <c r="D280" s="26"/>
+      <c r="E280" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>578</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>578</v>
+      </c>
+      <c r="B282" s="22"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="25"/>
+      <c r="E282" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>578</v>
+      </c>
+      <c r="B283" s="22"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="25"/>
+      <c r="E283" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>578</v>
+      </c>
+      <c r="B284" s="23"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>578</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>578</v>
+      </c>
+      <c r="B286" s="22"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="25"/>
+      <c r="E286" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>578</v>
+      </c>
+      <c r="B287" s="22"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="25"/>
+      <c r="E287" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="23"/>
+      <c r="C288" s="26"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>594</v>
+      </c>
+      <c r="B289" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E289" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>594</v>
+      </c>
+      <c r="B290" s="23"/>
+      <c r="C290" s="26"/>
+      <c r="D290" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E290" s="26"/>
+    </row>
+    <row r="291" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>594</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E291" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>594</v>
+      </c>
+      <c r="B292" s="22"/>
+      <c r="C292" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>594</v>
+      </c>
+      <c r="B293" s="23"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>594</v>
+      </c>
+      <c r="B294" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>594</v>
+      </c>
+      <c r="B295" s="22"/>
+      <c r="C295" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="23"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>614</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E297" s="24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>614</v>
+      </c>
+      <c r="B298" s="23"/>
+      <c r="C298" s="26"/>
+      <c r="D298" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E298" s="26"/>
+    </row>
+    <row r="299" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>614</v>
+      </c>
+      <c r="B299" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="D299" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>614</v>
+      </c>
+      <c r="B300" s="22"/>
+      <c r="C300" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D300" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>614</v>
+      </c>
+      <c r="B301" s="22"/>
+      <c r="C301" s="16"/>
+      <c r="D301" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E301" s="16"/>
+    </row>
+    <row r="302" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>614</v>
+      </c>
+      <c r="B302" s="23"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>614</v>
+      </c>
+      <c r="B303" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E303" s="24" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>614</v>
+      </c>
+      <c r="B304" s="23"/>
+      <c r="C304" s="26"/>
+      <c r="D304" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E304" s="26"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>628</v>
+      </c>
+      <c r="B305" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>628</v>
+      </c>
+      <c r="B306" s="23"/>
+      <c r="C306" s="26"/>
+      <c r="D306" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E306" s="26"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>628</v>
+      </c>
+      <c r="B307" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E307" s="42" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>628</v>
+      </c>
+      <c r="B308" s="23"/>
+      <c r="C308" s="26"/>
+      <c r="D308" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E308" s="43"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>628</v>
+      </c>
+      <c r="B309" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E309" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>628</v>
+      </c>
+      <c r="B310" s="23"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="E310" s="43"/>
+    </row>
+    <row r="311" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>639</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>639</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>639</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>639</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>649</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F315" s="45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>649</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D316" s="44" t="s">
+        <v>650</v>
+      </c>
+      <c r="E316" s="44" t="s">
+        <v>660</v>
+      </c>
+      <c r="F316" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>649</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="E317" s="44" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>649</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="E318" s="44" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>649</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="E319" s="44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>664</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E320" s="46" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>664</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>664</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>671</v>
+      </c>
+      <c r="B323" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="D323" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>671</v>
+      </c>
+      <c r="B324" s="23"/>
+      <c r="C324" s="26"/>
+      <c r="D324" s="26"/>
+      <c r="E324" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>671</v>
+      </c>
+      <c r="B325" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="D325" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>671</v>
+      </c>
+      <c r="B326" s="23"/>
+      <c r="C326" s="26"/>
+      <c r="D326" s="26"/>
+      <c r="E326" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>671</v>
+      </c>
+      <c r="B327" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="D327" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>671</v>
+      </c>
+      <c r="B328" s="23"/>
+      <c r="C328" s="26"/>
+      <c r="D328" s="26"/>
+      <c r="E328" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>684</v>
+      </c>
+      <c r="B329" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D329" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="E329" s="24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>684</v>
+      </c>
+      <c r="B330" s="23"/>
+      <c r="C330" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D330" s="26"/>
+      <c r="E330" s="26"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>684</v>
+      </c>
+      <c r="B331" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D331" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="E331" s="24" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>684</v>
+      </c>
+      <c r="B332" s="23"/>
+      <c r="C332" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="D332" s="26"/>
+      <c r="E332" s="26"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>684</v>
+      </c>
+      <c r="B333" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D333" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="E333" s="24" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>684</v>
+      </c>
+      <c r="B334" s="23"/>
+      <c r="C334" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D334" s="26"/>
+      <c r="E334" s="26"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>697</v>
+      </c>
+      <c r="B335" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E335" s="24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>697</v>
+      </c>
+      <c r="B336" s="23"/>
+      <c r="C336" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E336" s="26"/>
+    </row>
+    <row r="337" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>697</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>697</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>697</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>709</v>
+      </c>
+      <c r="B340" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>709</v>
+      </c>
+      <c r="B341" s="23"/>
+      <c r="C341" s="26"/>
+      <c r="D341" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>709</v>
+      </c>
+      <c r="B342" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E342" s="24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>709</v>
+      </c>
+      <c r="B343" s="23"/>
+      <c r="C343" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E343" s="26"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>709</v>
+      </c>
+      <c r="B344" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D344" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>709</v>
+      </c>
+      <c r="B345" s="23"/>
+      <c r="C345" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D345" s="26"/>
+      <c r="E345" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>709</v>
+      </c>
+      <c r="B346" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D346" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="E346" s="27" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>709</v>
+      </c>
+      <c r="B347" s="22"/>
+      <c r="C347" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="D347" s="31"/>
+      <c r="E347" s="31"/>
+    </row>
+    <row r="348" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>709</v>
+      </c>
+      <c r="B348" s="23"/>
+      <c r="C348" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>729</v>
+      </c>
+      <c r="B349" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D349" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="E349" s="24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>729</v>
+      </c>
+      <c r="B350" s="23"/>
+      <c r="C350" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D350" s="26"/>
+      <c r="E350" s="26"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>729</v>
+      </c>
+      <c r="B351" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E351" s="24" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>729</v>
+      </c>
+      <c r="B352" s="22"/>
+      <c r="C352" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E352" s="25"/>
+    </row>
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>729</v>
+      </c>
+      <c r="B353" s="23"/>
+      <c r="C353" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D353" s="12"/>
+      <c r="E353" s="26"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>729</v>
+      </c>
+      <c r="B354" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E354" s="24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>729</v>
+      </c>
+      <c r="B355" s="22"/>
+      <c r="C355" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E355" s="25"/>
+    </row>
+    <row r="356" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>729</v>
+      </c>
+      <c r="B356" s="23"/>
+      <c r="C356" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D356" s="12"/>
+      <c r="E356" s="26"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>746</v>
+      </c>
+      <c r="B357" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D357" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="E357" s="29" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>746</v>
+      </c>
+      <c r="B358" s="22"/>
+      <c r="C358" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D358" s="25"/>
+      <c r="E358" s="47"/>
+    </row>
+    <row r="359" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>746</v>
+      </c>
+      <c r="B359" s="23"/>
+      <c r="C359" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="D359" s="26"/>
+      <c r="E359" s="30"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>746</v>
+      </c>
+      <c r="B360" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D360" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="E360" s="24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>746</v>
+      </c>
+      <c r="B361" s="22"/>
+      <c r="C361" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D361" s="25"/>
+      <c r="E361" s="25"/>
+    </row>
+    <row r="362" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>746</v>
+      </c>
+      <c r="B362" s="23"/>
+      <c r="C362" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D362" s="26"/>
+      <c r="E362" s="26"/>
+    </row>
+    <row r="363" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>746</v>
+      </c>
+      <c r="B363" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>746</v>
+      </c>
+      <c r="B364" s="22"/>
+      <c r="C364" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E364" s="15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>746</v>
+      </c>
+      <c r="B365" s="22"/>
+      <c r="C365" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>746</v>
+      </c>
+      <c r="B366" s="22"/>
+      <c r="C366" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D366" s="16"/>
+      <c r="E366" s="16"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>746</v>
+      </c>
+      <c r="B367" s="22"/>
+      <c r="C367" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D367" s="16"/>
+      <c r="E367" s="16"/>
+    </row>
+    <row r="368" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>746</v>
+      </c>
+      <c r="B368" s="22"/>
+      <c r="C368" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16"/>
+    </row>
+    <row r="369" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>746</v>
+      </c>
+      <c r="B369" s="22"/>
+      <c r="C369" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16"/>
+    </row>
+    <row r="370" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>746</v>
+      </c>
+      <c r="B370" s="22"/>
+      <c r="C370" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+    </row>
+    <row r="371" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>746</v>
+      </c>
+      <c r="B371" s="23"/>
+      <c r="C371" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>769</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="D372" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="E372" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>769</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D373" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="E373" s="48" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>769</v>
+      </c>
+      <c r="B374" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E374" s="24" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>769</v>
+      </c>
+      <c r="B375" s="23"/>
+      <c r="C375" s="26"/>
+      <c r="D375" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="E375" s="26"/>
+    </row>
+    <row r="376" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>780</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="D376" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E376" s="10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>780</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>780</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>780</v>
+      </c>
+      <c r="B379" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="D379" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="E379" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>780</v>
+      </c>
+      <c r="B380" s="23"/>
+      <c r="C380" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>791</v>
+      </c>
+      <c r="B381" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="D381" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="E381" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>791</v>
+      </c>
+      <c r="B382" s="23"/>
+      <c r="C382" s="26"/>
+      <c r="D382" s="26"/>
+      <c r="E382" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>791</v>
+      </c>
+      <c r="B383" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>791</v>
+      </c>
+      <c r="B384" s="23"/>
+      <c r="C384" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>791</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C385" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>791</v>
+      </c>
+      <c r="B386" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D386" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>791</v>
+      </c>
+      <c r="B387" s="23"/>
+      <c r="C387" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D387" s="26"/>
+      <c r="E387" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>810</v>
+      </c>
+      <c r="B388" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>810</v>
+      </c>
+      <c r="B389" s="23"/>
+      <c r="C389" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>810</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>810</v>
+      </c>
+      <c r="B391" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C391" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E391" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>810</v>
+      </c>
+      <c r="B392" s="23"/>
+      <c r="C392" s="26"/>
+      <c r="D392" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E392" s="26"/>
+    </row>
+    <row r="393" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>810</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>826</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
+  <mergeCells count="283">
+    <mergeCell ref="E391:E392"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="D386:D387"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="D381:D382"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B360:B362"/>
+    <mergeCell ref="D360:D362"/>
+    <mergeCell ref="E360:E362"/>
+    <mergeCell ref="B363:B371"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="E374:E375"/>
+    <mergeCell ref="B351:B353"/>
+    <mergeCell ref="E351:E353"/>
+    <mergeCell ref="B354:B356"/>
+    <mergeCell ref="E354:E356"/>
+    <mergeCell ref="B357:B359"/>
+    <mergeCell ref="D357:D359"/>
+    <mergeCell ref="E357:E359"/>
+    <mergeCell ref="B346:B348"/>
+    <mergeCell ref="D346:D348"/>
+    <mergeCell ref="E346:E348"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="E349:E350"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="E342:E343"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="D344:D345"/>
+    <mergeCell ref="B333:B334"/>
+    <mergeCell ref="D333:D334"/>
+    <mergeCell ref="E333:E334"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="E335:E336"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="D329:D330"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="E331:E332"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="B327:B328"/>
+    <mergeCell ref="C327:C328"/>
+    <mergeCell ref="D327:D328"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="E297:E298"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="C285:C288"/>
+    <mergeCell ref="D285:D288"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="C277:C280"/>
+    <mergeCell ref="D277:D280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="D281:D284"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="B244:B250"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="E42:E43"/>
@@ -3859,23 +10996,266 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="C113:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957BAFE422B58F48BA4F3EA38AE10853" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2bc8489fd4afb2a695e27a7843042e7e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86da0dea4af8618efdc3d46303a9a3fe" ns3:_="">
+    <xsd:import namespace="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1230C13C-3AB3-4C43-9E0B-57CB0B743DEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5167ACAF-C885-481D-B0D2-11FF56304EA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA0098DB-51C0-48E5-AD07-EA1DCEC2309B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/readable_data_tables/asia.xlsx
+++ b/readable_data_tables/asia.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshnican/Documents/BCS/TedLab/here_there_way_over_there/repo_new/deictic_adverbs/readable_data_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B616E35-41FE-CE46-9A38-A56D23B4896A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14300"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="29940" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,7 +26,11 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -4491,7 +4498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4804,43 +4811,40 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4849,7 +4853,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5124,21 +5131,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189:C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
@@ -5149,7 +5156,7 @@
     <col min="8" max="8" width="95.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5172,18 +5179,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="36" t="str">
         <f t="shared" ref="C2:C61" si="0">IF(B2="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D2" s="34" t="str">
+      <c r="D2" s="36" t="str">
         <f t="shared" ref="D2:D61" si="1">IF(B2="SI","SI","")</f>
         <v>SI</v>
       </c>
@@ -5197,13 +5204,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5214,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -5237,7 +5244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5306,57 +5313,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -5379,7 +5386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5402,7 +5409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
+    <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1">
+    <row r="15" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5473,7 +5480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -5496,18 +5503,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="34" t="str">
+      <c r="C17" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
@@ -5521,13 +5528,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
@@ -5538,33 +5545,33 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="34" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -5574,14 +5581,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
@@ -5589,14 +5596,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="4" t="s">
         <v>61</v>
       </c>
@@ -5604,20 +5611,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -5627,14 +5634,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="3" t="s">
         <v>67</v>
       </c>
@@ -5642,14 +5649,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="4" t="s">
         <v>68</v>
       </c>
@@ -5657,79 +5664,79 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="36" t="s">
         <v>835</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="43" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -5752,18 +5759,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="34" t="str">
+      <c r="C31" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D31" s="34" t="str">
+      <c r="D31" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
@@ -5773,36 +5780,36 @@
       <c r="F31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -5811,36 +5818,36 @@
       <c r="F33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="36" t="s">
         <v>830</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5849,36 +5856,36 @@
       <c r="F35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -5887,26 +5894,26 @@
       <c r="F37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:8" ht="17" thickBot="1">
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -5934,251 +5941,251 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="36" t="s">
         <v>837</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" ht="16">
+      <c r="G41" s="42"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="36" t="s">
         <v>838</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="34" t="s">
         <v>105</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="39"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="1:8" ht="16">
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" thickBot="1">
+    <row r="45" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="41"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="41"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="34" t="str">
+      <c r="C46" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D46" s="34" t="str">
+      <c r="D46" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
+    <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="36" t="s">
         <v>840</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1">
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1">
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6201,165 +6208,165 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="34" t="str">
+      <c r="C55" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D55" s="34" t="str">
+      <c r="D55" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="34" t="s">
         <v>129</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="37" t="s">
+      <c r="G55" s="34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1">
+    <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="39"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="35"/>
       <c r="F56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="39"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="34" t="s">
         <v>133</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1">
+    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="39"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="34" t="s">
         <v>137</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1">
+    <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="39"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="34" t="str">
+      <c r="C61" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D61" s="34" t="str">
+      <c r="D61" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="37" t="s">
+      <c r="F61" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1">
+    <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -6372,13 +6379,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="3" t="s">
         <v>147</v>
       </c>
@@ -6389,13 +6396,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="3" t="s">
         <v>148</v>
       </c>
@@ -6404,105 +6411,105 @@
       </c>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="16"/>
       <c r="F66" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1">
+    <row r="67" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="12"/>
       <c r="F67" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="36" t="s">
         <v>830</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F68" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1">
+    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+    </row>
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="40" t="s">
+      <c r="G70" s="43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1">
+    <row r="71" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1">
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+    </row>
+    <row r="72" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>164</v>
       </c>
@@ -6527,90 +6534,90 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F73" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1">
+    <row r="74" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1">
+    <row r="76" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+    </row>
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="34" t="str">
+      <c r="C77" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
-      <c r="D77" s="34" t="str">
+      <c r="D77" s="36" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
@@ -6624,13 +6631,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16">
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="3" t="s">
         <v>176</v>
       </c>
@@ -6641,13 +6648,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16">
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="3" t="s">
         <v>177</v>
       </c>
@@ -6656,13 +6663,13 @@
       </c>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="3" t="s">
         <v>178</v>
       </c>
@@ -6671,13 +6678,13 @@
       </c>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:8" ht="16">
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="3" t="s">
         <v>179</v>
       </c>
@@ -6686,30 +6693,30 @@
       </c>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1">
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="12"/>
       <c r="F82" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:8" ht="16">
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E83" s="15" t="s">
@@ -6722,13 +6729,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="3" t="s">
         <v>188</v>
       </c>
@@ -6739,13 +6746,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16">
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="15" t="s">
         <v>189</v>
       </c>
@@ -6754,13 +6761,13 @@
       </c>
       <c r="G85" s="17"/>
     </row>
-    <row r="86" spans="1:8" ht="17" thickBot="1">
+    <row r="86" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="4" t="s">
         <v>190</v>
       </c>
@@ -6769,17 +6776,17 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:8" ht="16">
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E87" s="15" t="s">
@@ -6792,13 +6799,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="3" t="s">
         <v>197</v>
       </c>
@@ -6809,13 +6816,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16">
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="15" t="s">
         <v>198</v>
       </c>
@@ -6824,13 +6831,13 @@
       </c>
       <c r="G89" s="17"/>
     </row>
-    <row r="90" spans="1:8" ht="17" thickBot="1">
+    <row r="90" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="4" t="s">
         <v>199</v>
       </c>
@@ -6839,25 +6846,25 @@
       </c>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="34" t="str">
+      <c r="C91" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
-      <c r="D91" s="34" t="str">
+      <c r="D91" s="36" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="34" t="s">
         <v>207</v>
       </c>
       <c r="G91" s="9" t="s">
@@ -6867,33 +6874,33 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1">
+    <row r="92" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
       <c r="G92" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="36" t="s">
         <v>842</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="43" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="13" t="s">
@@ -6903,14 +6910,14 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
+    <row r="94" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="41"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="45"/>
       <c r="F94" s="6" t="s">
         <v>212</v>
       </c>
@@ -6918,20 +6925,20 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>205</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="34" t="s">
         <v>215</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -6941,14 +6948,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="3" t="s">
         <v>217</v>
       </c>
@@ -6956,33 +6963,33 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1">
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>205</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="39"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="35"/>
       <c r="F97" s="4" t="s">
         <v>218</v>
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="E98" s="37" t="s">
+      <c r="E98" s="34" t="s">
         <v>221</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -6992,14 +6999,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1">
+    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="39"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="35"/>
       <c r="F99" s="4" t="s">
         <v>223</v>
       </c>
@@ -7007,17 +7014,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>205</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D100" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E100" s="13" t="s">
@@ -7030,13 +7037,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="13" t="s">
         <v>227</v>
       </c>
@@ -7047,31 +7054,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1">
+    <row r="102" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="34" t="str">
+      <c r="C103" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
-      <c r="D103" s="34" t="str">
+      <c r="D103" s="36" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
@@ -7081,36 +7088,36 @@
       <c r="F103" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="34" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1">
+    <row r="104" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="4" t="s">
         <v>236</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G104" s="39"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="G104" s="35"/>
+    </row>
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D105" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -7119,36 +7126,36 @@
       <c r="F105" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" thickBot="1">
+    <row r="106" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="4" t="s">
         <v>239</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G106" s="43"/>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="G106" s="42"/>
+    </row>
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D107" s="34" t="s">
+      <c r="D107" s="36" t="s">
         <v>830</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -7157,36 +7164,36 @@
       <c r="F107" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G107" s="37" t="s">
+      <c r="G107" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" thickBot="1">
+    <row r="108" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>234</v>
       </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G108" s="39"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="G108" s="35"/>
+    </row>
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E109" s="13" t="s">
@@ -7195,41 +7202,41 @@
       <c r="F109" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G109" s="40" t="s">
+      <c r="G109" s="43" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" thickBot="1">
+    <row r="110" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="6" t="s">
         <v>245</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G110" s="41"/>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="G110" s="45"/>
+    </row>
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>247</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="34" t="str">
+      <c r="C111" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
-      <c r="D111" s="34" t="str">
+      <c r="D111" s="36" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="34" t="s">
         <v>248</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -7239,14 +7246,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" thickBot="1">
+    <row r="112" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>247</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="39"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="35"/>
       <c r="F112" s="4" t="s">
         <v>250</v>
       </c>
@@ -7254,20 +7261,20 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E113" s="37" t="s">
+      <c r="E113" s="34" t="s">
         <v>253</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -7277,14 +7284,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="39"/>
       <c r="F114" s="3" t="s">
         <v>254</v>
       </c>
@@ -7292,46 +7299,46 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>247</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
       <c r="F115" s="3" t="s">
         <v>255</v>
       </c>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1">
+    <row r="116" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="39"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="35"/>
       <c r="F116" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E117" s="37" t="s">
+      <c r="E117" s="34" t="s">
         <v>259</v>
       </c>
       <c r="F117" s="19" t="s">
@@ -7341,14 +7348,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="39"/>
       <c r="F118" s="19" t="s">
         <v>261</v>
       </c>
@@ -7356,33 +7363,33 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>247</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39"/>
       <c r="F119" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1">
+    <row r="120" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="39"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="35"/>
       <c r="F120" s="20" t="s">
         <v>263</v>
       </c>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1">
+    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>266</v>
       </c>
@@ -7410,7 +7417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" thickBot="1">
+    <row r="122" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -7433,7 +7440,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1">
+    <row r="123" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>266</v>
       </c>
@@ -7456,43 +7463,43 @@
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>266</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="36" t="s">
         <v>843</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="36" t="s">
         <v>846</v>
       </c>
-      <c r="E124" s="37" t="s">
+      <c r="E124" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="F124" s="37" t="s">
+      <c r="F124" s="34" t="s">
         <v>273</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1">
+    <row r="125" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>266</v>
       </c>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
       <c r="G125" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1">
+    <row r="126" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>266</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1">
+    <row r="127" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -7538,18 +7545,18 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>280</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="34" t="str">
+      <c r="C128" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
-      <c r="D128" s="34" t="str">
+      <c r="D128" s="36" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
@@ -7563,13 +7570,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>280</v>
       </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
       <c r="E129" s="3" t="s">
         <v>282</v>
       </c>
@@ -7580,103 +7587,103 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1">
+    <row r="130" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>280</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>280</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D131" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F131" s="37" t="s">
+      <c r="F131" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="G131" s="37" t="s">
+      <c r="G131" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" thickBot="1">
+    <row r="132" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
       <c r="E132" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>280</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D133" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E133" s="37" t="s">
+      <c r="E133" s="34" t="s">
         <v>292</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G133" s="37" t="s">
+      <c r="G133" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" thickBot="1">
+    <row r="134" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="39"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="35"/>
       <c r="F134" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G134" s="39"/>
-    </row>
-    <row r="135" spans="1:7" ht="16">
+      <c r="G134" s="35"/>
+    </row>
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>299</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="34" t="str">
+      <c r="C135" s="36" t="str">
         <f t="shared" ref="C135:C189" si="4">IF(B135="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D135" s="34" t="str">
+      <c r="D135" s="36" t="str">
         <f t="shared" ref="D135:D189" si="5">IF(B135="SI","SI","")</f>
         <v>SI</v>
       </c>
@@ -7690,13 +7697,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" thickBot="1">
+    <row r="136" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>299</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="4" t="s">
         <v>301</v>
       </c>
@@ -7707,242 +7714,242 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>299</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="36" t="s">
         <v>844</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F137" s="42" t="s">
+      <c r="F137" s="40" t="s">
         <v>306</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1">
+    <row r="138" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>299</v>
       </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
       <c r="E138" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F138" s="43"/>
+      <c r="F138" s="42"/>
       <c r="G138" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16">
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="34" t="s">
+      <c r="C139" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="36" t="s">
         <v>845</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="F139" s="45" t="s">
+      <c r="F139" s="48" t="s">
         <v>310</v>
       </c>
       <c r="G139" s="24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" thickBot="1">
+    <row r="140" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
       <c r="E140" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F140" s="46"/>
+      <c r="F140" s="49"/>
       <c r="G140" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16">
+    <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>299</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="34" t="s">
+      <c r="C141" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="36" t="s">
         <v>849</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F141" s="37" t="s">
+      <c r="F141" s="34" t="s">
         <v>313</v>
       </c>
       <c r="G141" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17" thickBot="1">
+    <row r="142" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>299</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
       <c r="E142" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F142" s="39"/>
+      <c r="F142" s="35"/>
       <c r="G142" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="34" t="str">
+      <c r="C143" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D143" s="34" t="str">
+      <c r="D143" s="36" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="E143" s="37" t="s">
+      <c r="E143" s="34" t="s">
         <v>317</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G143" s="37" t="s">
+      <c r="G143" s="34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17" thickBot="1">
+    <row r="144" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>316</v>
       </c>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="39"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="35"/>
       <c r="F144" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G144" s="39"/>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="G144" s="35"/>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>316</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="34" t="s">
+      <c r="C145" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E145" s="37" t="s">
+      <c r="E145" s="34" t="s">
         <v>321</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G145" s="37" t="s">
+      <c r="G145" s="34" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17" thickBot="1">
+    <row r="146" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>316</v>
       </c>
-      <c r="B146" s="36"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="39"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="35"/>
       <c r="F146" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G146" s="39"/>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="G146" s="35"/>
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C147" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D147" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E147" s="37" t="s">
+      <c r="E147" s="34" t="s">
         <v>325</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="34" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17" thickBot="1">
+    <row r="148" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>316</v>
       </c>
-      <c r="B148" s="36"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="39"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="35"/>
       <c r="F148" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G148" s="39"/>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="G148" s="35"/>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>329</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="34" t="str">
+      <c r="C149" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D149" s="34" t="str">
+      <c r="D149" s="36" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
@@ -7956,13 +7963,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17" thickBot="1">
+    <row r="150" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>329</v>
       </c>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
       <c r="E150" s="4" t="s">
         <v>331</v>
       </c>
@@ -7973,17 +7980,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16">
+    <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>329</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -7996,13 +8003,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17" thickBot="1">
+    <row r="152" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>329</v>
       </c>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
       <c r="E152" s="4" t="s">
         <v>334</v>
       </c>
@@ -8013,17 +8020,17 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16">
+    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>329</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C153" s="34" t="s">
+      <c r="C153" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E153" s="15" t="s">
@@ -8036,13 +8043,13 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17" thickBot="1">
+    <row r="154" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>329</v>
       </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
       <c r="E154" s="11" t="s">
         <v>338</v>
       </c>
@@ -8053,130 +8060,130 @@
         <v>338</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="28">
+    <row r="155" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>339</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="34" t="str">
+      <c r="C155" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D155" s="34" t="str">
+      <c r="D155" s="36" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F155" s="37" t="s">
+      <c r="F155" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="G155" s="37" t="s">
+      <c r="G155" s="34" t="s">
         <v>342</v>
       </c>
       <c r="H155" s="26" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" thickBot="1">
+    <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>339</v>
       </c>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
       <c r="E156" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39"/>
-    </row>
-    <row r="157" spans="1:8" ht="16">
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+    </row>
+    <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>339</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="C157" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="E157" s="37" t="s">
+      <c r="E157" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="F157" s="37" t="s">
+      <c r="F157" s="34" t="s">
         <v>343</v>
       </c>
       <c r="G157" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17" thickBot="1">
+    <row r="158" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>339</v>
       </c>
-      <c r="B158" s="36"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="39"/>
-      <c r="F158" s="39"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
       <c r="G158" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16">
+    <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>339</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="34" t="s">
+      <c r="C159" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="36" t="s">
         <v>845</v>
       </c>
-      <c r="E159" s="40" t="s">
+      <c r="E159" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F159" s="45" t="s">
+      <c r="F159" s="48" t="s">
         <v>347</v>
       </c>
       <c r="G159" s="24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17" thickBot="1">
+    <row r="160" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>339</v>
       </c>
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="46"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="49"/>
       <c r="G160" s="25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16">
+    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>339</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C161" s="34" t="s">
+      <c r="C161" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="36" t="s">
         <v>849</v>
       </c>
       <c r="E161" s="15" t="s">
@@ -8189,13 +8196,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16">
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>339</v>
       </c>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38"/>
       <c r="E162" s="3" t="s">
         <v>350</v>
       </c>
@@ -8206,44 +8213,44 @@
         <v>352</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16">
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>339</v>
       </c>
-      <c r="B163" s="35"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="38"/>
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
       <c r="G163" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17" thickBot="1">
+    <row r="164" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>339</v>
       </c>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="11" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>356</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="34" t="str">
+      <c r="C165" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D165" s="34" t="str">
+      <c r="D165" s="36" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
@@ -8257,13 +8264,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>356</v>
       </c>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
       <c r="E166" s="3" t="s">
         <v>358</v>
       </c>
@@ -8272,26 +8279,26 @@
       </c>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>356</v>
       </c>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
       <c r="E167" s="3" t="s">
         <v>359</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>356</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
       <c r="E168" s="3" t="s">
         <v>360</v>
       </c>
@@ -8302,13 +8309,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
       <c r="E169" s="3" t="s">
         <v>361</v>
       </c>
@@ -8317,30 +8324,30 @@
       </c>
       <c r="G169" s="16"/>
     </row>
-    <row r="170" spans="1:7" ht="15" thickBot="1">
+    <row r="170" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
-      <c r="B170" s="36"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="36"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
       <c r="E170" s="4" t="s">
         <v>362</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>356</v>
       </c>
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="34" t="s">
-        <v>832</v>
-      </c>
-      <c r="D171" s="34" t="s">
+      <c r="C171" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="D171" s="36" t="s">
         <v>844</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -8353,13 +8360,13 @@
         <v>377</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>356</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38"/>
       <c r="E172" s="3" t="s">
         <v>369</v>
       </c>
@@ -8368,26 +8375,26 @@
       </c>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>356</v>
       </c>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
       <c r="E173" s="3" t="s">
         <v>370</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>356</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="38"/>
       <c r="E174" s="3" t="s">
         <v>371</v>
       </c>
@@ -8398,13 +8405,13 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>356</v>
       </c>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38"/>
       <c r="E175" s="3" t="s">
         <v>372</v>
       </c>
@@ -8413,30 +8420,30 @@
       </c>
       <c r="G175" s="16"/>
     </row>
-    <row r="176" spans="1:7" ht="15" thickBot="1">
+    <row r="176" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37"/>
       <c r="E176" s="4" t="s">
         <v>373</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>356</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="34" t="s">
-        <v>832</v>
-      </c>
-      <c r="D177" s="34" t="s">
+      <c r="C177" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="D177" s="36" t="s">
         <v>845</v>
       </c>
       <c r="E177" s="13" t="s">
@@ -8449,13 +8456,13 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>356</v>
       </c>
-      <c r="B178" s="35"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
       <c r="E178" s="13" t="s">
         <v>380</v>
       </c>
@@ -8464,26 +8471,26 @@
       </c>
       <c r="G178" s="13"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
       <c r="E179" s="13" t="s">
         <v>381</v>
       </c>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="38"/>
       <c r="E180" s="13" t="s">
         <v>382</v>
       </c>
@@ -8494,13 +8501,13 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>356</v>
       </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38"/>
       <c r="E181" s="13" t="s">
         <v>383</v>
       </c>
@@ -8509,30 +8516,30 @@
       </c>
       <c r="G181" s="27"/>
     </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1">
+    <row r="182" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
       <c r="E182" s="6" t="s">
         <v>384</v>
       </c>
       <c r="F182" s="18"/>
       <c r="G182" s="18"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>356</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C183" s="34" t="s">
-        <v>832</v>
-      </c>
-      <c r="D183" s="34" t="s">
+      <c r="C183" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="D183" s="36" t="s">
         <v>849</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -8545,13 +8552,13 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>356</v>
       </c>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
       <c r="E184" s="3" t="s">
         <v>390</v>
       </c>
@@ -8560,26 +8567,26 @@
       </c>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>356</v>
       </c>
-      <c r="B185" s="35"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="38"/>
       <c r="E185" s="3" t="s">
         <v>391</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="17"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>356</v>
       </c>
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38"/>
       <c r="E186" s="3" t="s">
         <v>392</v>
       </c>
@@ -8590,13 +8597,13 @@
         <v>398</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>356</v>
       </c>
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38"/>
       <c r="E187" s="3" t="s">
         <v>393</v>
       </c>
@@ -8605,31 +8612,31 @@
       </c>
       <c r="G187" s="16"/>
     </row>
-    <row r="188" spans="1:7" ht="15" thickBot="1">
+    <row r="188" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>356</v>
       </c>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
+      <c r="B188" s="37"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="37"/>
       <c r="E188" s="4" t="s">
         <v>394</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>399</v>
       </c>
-      <c r="B189" s="34" t="s">
+      <c r="B189" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="34" t="str">
+      <c r="C189" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D189" s="34" t="str">
+      <c r="D189" s="36" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
@@ -8643,13 +8650,13 @@
         <v>404</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>399</v>
       </c>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="38"/>
       <c r="E190" s="3" t="s">
         <v>401</v>
       </c>
@@ -8660,188 +8667,188 @@
         <v>405</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>399</v>
       </c>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="38"/>
       <c r="E191" s="3" t="s">
         <v>402</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:7" ht="15" thickBot="1">
+    <row r="192" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>399</v>
       </c>
-      <c r="B192" s="36"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
       <c r="E192" s="4" t="s">
         <v>403</v>
       </c>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>399</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B193" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C193" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D193" s="34" t="s">
+      <c r="D193" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E193" s="37" t="s">
+      <c r="E193" s="34" t="s">
         <v>406</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G193" s="37" t="s">
+      <c r="G193" s="34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" thickBot="1">
+    <row r="194" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>399</v>
       </c>
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="39"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="35"/>
       <c r="F194" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G194" s="39"/>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="G194" s="35"/>
+    </row>
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>399</v>
       </c>
-      <c r="B195" s="34" t="s">
+      <c r="B195" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C195" s="34" t="s">
+      <c r="C195" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D195" s="34" t="s">
+      <c r="D195" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="E195" s="40" t="s">
+      <c r="E195" s="43" t="s">
         <v>409</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="G195" s="40" t="s">
+      <c r="G195" s="43" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" thickBot="1">
+    <row r="196" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>399</v>
       </c>
-      <c r="B196" s="36"/>
-      <c r="C196" s="36"/>
-      <c r="D196" s="36"/>
-      <c r="E196" s="41"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="45"/>
       <c r="F196" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G196" s="41"/>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="G196" s="45"/>
+    </row>
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>399</v>
       </c>
-      <c r="B197" s="34" t="s">
+      <c r="B197" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C197" s="34" t="s">
+      <c r="C197" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E197" s="37" t="s">
+      <c r="E197" s="34" t="s">
         <v>413</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G197" s="37" t="s">
+      <c r="G197" s="34" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" thickBot="1">
+    <row r="198" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>399</v>
       </c>
-      <c r="B198" s="36"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="39"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="35"/>
       <c r="F198" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G198" s="39"/>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="G198" s="35"/>
+    </row>
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>399</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C199" s="34" t="s">
+      <c r="C199" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="36" t="s">
         <v>836</v>
       </c>
-      <c r="E199" s="40" t="s">
+      <c r="E199" s="43" t="s">
         <v>416</v>
       </c>
       <c r="F199" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="G199" s="40" t="s">
+      <c r="G199" s="43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" thickBot="1">
+    <row r="200" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>399</v>
       </c>
-      <c r="B200" s="36"/>
-      <c r="C200" s="36"/>
-      <c r="D200" s="36"/>
-      <c r="E200" s="41"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="45"/>
       <c r="F200" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G200" s="41"/>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="G200" s="45"/>
+    </row>
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>419</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C201" s="34" t="str">
+      <c r="C201" s="36" t="str">
         <f t="shared" ref="C201:C255" si="6">IF(B201="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D201" s="34" t="str">
+      <c r="D201" s="36" t="str">
         <f t="shared" ref="D201:D255" si="7">IF(B201="SI","SI","")</f>
         <v>SI</v>
       </c>
@@ -8855,13 +8862,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" thickBot="1">
+    <row r="202" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>419</v>
       </c>
-      <c r="B202" s="36"/>
-      <c r="C202" s="36"/>
-      <c r="D202" s="36"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
       <c r="E202" s="4" t="s">
         <v>421</v>
       </c>
@@ -8872,17 +8879,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>419</v>
       </c>
-      <c r="B203" s="34" t="s">
+      <c r="B203" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="C203" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -8895,13 +8902,13 @@
         <v>428</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>419</v>
       </c>
-      <c r="B204" s="35"/>
-      <c r="C204" s="35"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="38"/>
       <c r="E204" s="3" t="s">
         <v>426</v>
       </c>
@@ -8912,13 +8919,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" thickBot="1">
+    <row r="205" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>419</v>
       </c>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
       <c r="E205" s="4" t="s">
         <v>427</v>
       </c>
@@ -8929,17 +8936,17 @@
         <v>430</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>419</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="34" t="s">
+      <c r="C206" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -8952,13 +8959,13 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>419</v>
       </c>
-      <c r="B207" s="35"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="35"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="38"/>
       <c r="E207" s="3" t="s">
         <v>432</v>
       </c>
@@ -8969,13 +8976,13 @@
         <v>435</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" thickBot="1">
+    <row r="208" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>419</v>
       </c>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
       <c r="E208" s="4" t="s">
         <v>433</v>
       </c>
@@ -8986,128 +8993,128 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>437</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="34" t="str">
+      <c r="C209" s="36" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D209" s="34" t="str">
+      <c r="D209" s="36" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
-      <c r="E209" s="37" t="s">
+      <c r="E209" s="34" t="s">
         <v>438</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G209" s="37" t="s">
+      <c r="G209" s="34" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15" thickBot="1">
+    <row r="210" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>437</v>
       </c>
-      <c r="B210" s="36"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="36"/>
-      <c r="E210" s="39"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="35"/>
       <c r="F210" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G210" s="39"/>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="G210" s="35"/>
+    </row>
+    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>437</v>
       </c>
-      <c r="B211" s="34" t="s">
+      <c r="B211" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="34" t="s">
+      <c r="C211" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E211" s="37" t="s">
+      <c r="E211" s="34" t="s">
         <v>442</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G211" s="37" t="s">
+      <c r="G211" s="34" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" thickBot="1">
+    <row r="212" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>437</v>
       </c>
-      <c r="B212" s="36"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="39"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="37"/>
+      <c r="E212" s="35"/>
       <c r="F212" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G212" s="39"/>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="G212" s="35"/>
+    </row>
+    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>437</v>
       </c>
-      <c r="B213" s="34" t="s">
+      <c r="B213" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E213" s="37" t="s">
+      <c r="E213" s="34" t="s">
         <v>446</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="G213" s="37" t="s">
+      <c r="G213" s="34" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" thickBot="1">
+    <row r="214" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>437</v>
       </c>
-      <c r="B214" s="36"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
-      <c r="E214" s="39"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="35"/>
       <c r="F214" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G214" s="39"/>
-    </row>
-    <row r="215" spans="1:7" ht="16">
+      <c r="G214" s="35"/>
+    </row>
+    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>450</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="34" t="str">
+      <c r="C215" s="36" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D215" s="34" t="str">
+      <c r="D215" s="36" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
@@ -9117,36 +9124,36 @@
       <c r="F215" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="G215" s="42" t="s">
+      <c r="G215" s="40" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15" thickBot="1">
+    <row r="216" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>450</v>
       </c>
-      <c r="B216" s="36"/>
-      <c r="C216" s="36"/>
-      <c r="D216" s="36"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="37"/>
       <c r="E216" s="4" t="s">
         <v>452</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G216" s="43"/>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="G216" s="42"/>
+    </row>
+    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>450</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="34" t="s">
+      <c r="C217" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -9155,36 +9162,36 @@
       <c r="F217" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G217" s="37" t="s">
+      <c r="G217" s="34" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15" thickBot="1">
+    <row r="218" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>450</v>
       </c>
-      <c r="B218" s="36"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="36"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="37"/>
       <c r="E218" s="4" t="s">
         <v>456</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G218" s="39"/>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="G218" s="35"/>
+    </row>
+    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>450</v>
       </c>
-      <c r="B219" s="34" t="s">
+      <c r="B219" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C219" s="34" t="s">
+      <c r="C219" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D219" s="34" t="s">
+      <c r="D219" s="36" t="s">
         <v>830</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -9193,36 +9200,36 @@
       <c r="F219" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G219" s="37" t="s">
+      <c r="G219" s="34" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15" thickBot="1">
+    <row r="220" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>450</v>
       </c>
-      <c r="B220" s="36"/>
-      <c r="C220" s="36"/>
-      <c r="D220" s="36"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
       <c r="E220" s="4" t="s">
         <v>461</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G220" s="39"/>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="G220" s="35"/>
+    </row>
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>450</v>
       </c>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C221" s="34" t="s">
+      <c r="C221" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D221" s="34" t="s">
+      <c r="D221" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E221" s="13" t="s">
@@ -9231,26 +9238,26 @@
       <c r="F221" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="G221" s="40" t="s">
+      <c r="G221" s="43" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" thickBot="1">
+    <row r="222" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>450</v>
       </c>
-      <c r="B222" s="36"/>
-      <c r="C222" s="36"/>
-      <c r="D222" s="36"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
       <c r="E222" s="6" t="s">
         <v>465</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G222" s="41"/>
-    </row>
-    <row r="223" spans="1:7" ht="15" thickBot="1">
+      <c r="G222" s="45"/>
+    </row>
+    <row r="223" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>469</v>
       </c>
@@ -9275,79 +9282,79 @@
         <v>472</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>469</v>
       </c>
-      <c r="B224" s="34" t="s">
+      <c r="B224" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C224" s="34" t="s">
+      <c r="C224" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E224" s="37" t="s">
+      <c r="E224" s="34" t="s">
         <v>473</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G224" s="37" t="s">
+      <c r="G224" s="34" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15" thickBot="1">
+    <row r="225" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>469</v>
       </c>
-      <c r="B225" s="36"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="36"/>
-      <c r="E225" s="39"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="37"/>
+      <c r="D225" s="37"/>
+      <c r="E225" s="35"/>
       <c r="F225" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G225" s="39"/>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="G225" s="35"/>
+    </row>
+    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>469</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B226" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C226" s="34" t="s">
+      <c r="C226" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D226" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E226" s="37" t="s">
+      <c r="E226" s="34" t="s">
         <v>262</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G226" s="37" t="s">
+      <c r="G226" s="34" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15" thickBot="1">
+    <row r="227" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>469</v>
       </c>
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="39"/>
+      <c r="B227" s="37"/>
+      <c r="C227" s="37"/>
+      <c r="D227" s="37"/>
+      <c r="E227" s="35"/>
       <c r="F227" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G227" s="39"/>
-    </row>
-    <row r="228" spans="1:8" ht="15" thickBot="1">
+      <c r="G227" s="35"/>
+    </row>
+    <row r="228" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>480</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="17" thickBot="1">
+    <row r="229" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>480</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15" thickBot="1">
+    <row r="230" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>480</v>
       </c>
@@ -9421,7 +9428,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="17" thickBot="1">
+    <row r="231" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>480</v>
       </c>
@@ -9444,7 +9451,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15" thickBot="1">
+    <row r="232" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>480</v>
       </c>
@@ -9467,7 +9474,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15" thickBot="1">
+    <row r="233" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>480</v>
       </c>
@@ -9490,58 +9497,58 @@
         <v>493</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>495</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="34" t="str">
+      <c r="C234" s="36" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D234" s="34" t="str">
+      <c r="D234" s="36" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
-      <c r="E234" s="37" t="s">
+      <c r="E234" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="F234" s="37" t="s">
+      <c r="F234" s="34" t="s">
         <v>496</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15" thickBot="1">
+    <row r="235" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>495</v>
       </c>
-      <c r="B235" s="36"/>
-      <c r="C235" s="36"/>
-      <c r="D235" s="36"/>
-      <c r="E235" s="39"/>
-      <c r="F235" s="39"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="35"/>
+      <c r="F235" s="35"/>
       <c r="G235" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>495</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B236" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C236" s="34" t="s">
+      <c r="C236" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D236" s="34" t="s">
+      <c r="D236" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E236" s="40" t="s">
+      <c r="E236" s="43" t="s">
         <v>499</v>
       </c>
       <c r="F236" s="13" t="s">
@@ -9551,14 +9558,14 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15" thickBot="1">
+    <row r="237" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>495</v>
       </c>
-      <c r="B237" s="36"/>
-      <c r="C237" s="36"/>
-      <c r="D237" s="36"/>
-      <c r="E237" s="41"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="45"/>
       <c r="F237" s="6" t="s">
         <v>500</v>
       </c>
@@ -9566,20 +9573,20 @@
         <v>502</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>495</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B238" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C238" s="34" t="s">
+      <c r="C238" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D238" s="34" t="s">
+      <c r="D238" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="E238" s="37" t="s">
+      <c r="E238" s="34" t="s">
         <v>503</v>
       </c>
       <c r="F238" s="3" t="s">
@@ -9589,14 +9596,14 @@
         <v>505</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15" thickBot="1">
+    <row r="239" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>495</v>
       </c>
-      <c r="B239" s="36"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="36"/>
-      <c r="E239" s="39"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="35"/>
       <c r="F239" s="4" t="s">
         <v>504</v>
       </c>
@@ -9604,7 +9611,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15" thickBot="1">
+    <row r="240" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>495</v>
       </c>
@@ -9627,7 +9634,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15" thickBot="1">
+    <row r="241" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>509</v>
       </c>
@@ -9652,7 +9659,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15" thickBot="1">
+    <row r="242" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>509</v>
       </c>
@@ -9675,7 +9682,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15" thickBot="1">
+    <row r="243" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>509</v>
       </c>
@@ -9698,18 +9705,18 @@
         <v>515</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16">
+    <row r="244" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>516</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="34" t="str">
+      <c r="C244" s="36" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D244" s="34" t="str">
+      <c r="D244" s="36" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
@@ -9723,13 +9730,13 @@
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>516</v>
       </c>
-      <c r="B245" s="35"/>
-      <c r="C245" s="35"/>
-      <c r="D245" s="35"/>
+      <c r="B245" s="38"/>
+      <c r="C245" s="38"/>
+      <c r="D245" s="38"/>
       <c r="E245" s="3" t="s">
         <v>518</v>
       </c>
@@ -9740,13 +9747,13 @@
         <v>525</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16">
+    <row r="246" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>516</v>
       </c>
-      <c r="B246" s="35"/>
-      <c r="C246" s="35"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="38"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="38"/>
       <c r="E246" s="15" t="s">
         <v>519</v>
       </c>
@@ -9757,13 +9764,13 @@
         <v>526</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16">
+    <row r="247" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>516</v>
       </c>
-      <c r="B247" s="35"/>
-      <c r="C247" s="35"/>
-      <c r="D247" s="35"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="38"/>
       <c r="E247" s="15" t="s">
         <v>520</v>
       </c>
@@ -9774,13 +9781,13 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>516</v>
       </c>
-      <c r="B248" s="35"/>
-      <c r="C248" s="35"/>
-      <c r="D248" s="35"/>
+      <c r="B248" s="38"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="38"/>
       <c r="E248" s="3" t="s">
         <v>521</v>
       </c>
@@ -9789,143 +9796,143 @@
       </c>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>516</v>
       </c>
-      <c r="B249" s="35"/>
-      <c r="C249" s="35"/>
-      <c r="D249" s="35"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38"/>
       <c r="E249" s="16"/>
       <c r="F249" s="3" t="s">
         <v>522</v>
       </c>
       <c r="G249" s="16"/>
     </row>
-    <row r="250" spans="1:7" ht="15" thickBot="1">
+    <row r="250" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>516</v>
       </c>
-      <c r="B250" s="36"/>
-      <c r="C250" s="36"/>
-      <c r="D250" s="36"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="37"/>
       <c r="E250" s="12"/>
       <c r="F250" s="4" t="s">
         <v>523</v>
       </c>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>516</v>
       </c>
-      <c r="B251" s="34" t="s">
+      <c r="B251" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C251" s="34" t="s">
+      <c r="C251" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E251" s="37" t="s">
+      <c r="E251" s="34" t="s">
         <v>528</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G251" s="37" t="s">
+      <c r="G251" s="34" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15" thickBot="1">
+    <row r="252" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>516</v>
       </c>
-      <c r="B252" s="36"/>
-      <c r="C252" s="36"/>
-      <c r="D252" s="36"/>
-      <c r="E252" s="39"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="35"/>
       <c r="F252" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G252" s="39"/>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="G252" s="35"/>
+    </row>
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>516</v>
       </c>
-      <c r="B253" s="34" t="s">
+      <c r="B253" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C253" s="34" t="s">
+      <c r="C253" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D253" s="34" t="s">
+      <c r="D253" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E253" s="37" t="s">
+      <c r="E253" s="34" t="s">
         <v>531</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G253" s="37" t="s">
+      <c r="G253" s="34" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="17" thickBot="1">
+    <row r="254" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>516</v>
       </c>
-      <c r="B254" s="36"/>
-      <c r="C254" s="36"/>
-      <c r="D254" s="36"/>
-      <c r="E254" s="39"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="35"/>
       <c r="F254" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="G254" s="39"/>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="G254" s="35"/>
+    </row>
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>534</v>
       </c>
-      <c r="B255" s="34" t="s">
+      <c r="B255" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="34" t="str">
+      <c r="C255" s="36" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D255" s="34" t="str">
+      <c r="D255" s="36" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
-      <c r="E255" s="37" t="s">
+      <c r="E255" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="F255" s="37" t="s">
+      <c r="F255" s="34" t="s">
         <v>536</v>
       </c>
       <c r="G255" s="9" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15" thickBot="1">
+    <row r="256" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>534</v>
       </c>
-      <c r="B256" s="36"/>
-      <c r="C256" s="36"/>
-      <c r="D256" s="36"/>
-      <c r="E256" s="39"/>
-      <c r="F256" s="39"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="35"/>
+      <c r="F256" s="35"/>
       <c r="G256" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15" thickBot="1">
+    <row r="257" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>534</v>
       </c>
@@ -9948,56 +9955,56 @@
         <v>541</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>534</v>
       </c>
-      <c r="B258" s="34" t="s">
+      <c r="B258" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C258" s="34" t="s">
+      <c r="C258" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D258" s="34" t="s">
+      <c r="D258" s="36" t="s">
         <v>854</v>
       </c>
-      <c r="E258" s="40" t="s">
+      <c r="E258" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="F258" s="40" t="s">
+      <c r="F258" s="43" t="s">
         <v>543</v>
       </c>
       <c r="G258" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>534</v>
       </c>
-      <c r="B259" s="35"/>
-      <c r="C259" s="35"/>
-      <c r="D259" s="35"/>
+      <c r="B259" s="38"/>
+      <c r="C259" s="38"/>
+      <c r="D259" s="38"/>
       <c r="E259" s="44"/>
       <c r="F259" s="44"/>
       <c r="G259" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15" thickBot="1">
+    <row r="260" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>534</v>
       </c>
-      <c r="B260" s="36"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="36"/>
-      <c r="E260" s="41"/>
-      <c r="F260" s="41"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="45"/>
+      <c r="F260" s="45"/>
       <c r="G260" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15" thickBot="1">
+    <row r="261" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>534</v>
       </c>
@@ -10020,18 +10027,18 @@
         <v>549</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="28">
+    <row r="262" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>550</v>
       </c>
-      <c r="B262" s="34" t="s">
+      <c r="B262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="34" t="str">
+      <c r="C262" s="36" t="str">
         <f t="shared" ref="C262:C322" si="8">IF(B262="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D262" s="34" t="str">
+      <c r="D262" s="36" t="str">
         <f t="shared" ref="D262:D322" si="9">IF(B262="SI","SI","")</f>
         <v>SI</v>
       </c>
@@ -10048,13 +10055,13 @@
         <v>564</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>550</v>
       </c>
-      <c r="B263" s="35"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
+      <c r="B263" s="38"/>
+      <c r="C263" s="38"/>
+      <c r="D263" s="38"/>
       <c r="E263" s="3" t="s">
         <v>552</v>
       </c>
@@ -10065,13 +10072,13 @@
         <v>552</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>550</v>
       </c>
-      <c r="B264" s="35"/>
-      <c r="C264" s="35"/>
-      <c r="D264" s="35"/>
+      <c r="B264" s="38"/>
+      <c r="C264" s="38"/>
+      <c r="D264" s="38"/>
       <c r="E264" s="3" t="s">
         <v>553</v>
       </c>
@@ -10082,13 +10089,13 @@
         <v>553</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15" thickBot="1">
+    <row r="265" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>550</v>
       </c>
-      <c r="B265" s="36"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="36"/>
+      <c r="B265" s="37"/>
+      <c r="C265" s="37"/>
+      <c r="D265" s="37"/>
       <c r="E265" s="4" t="s">
         <v>554</v>
       </c>
@@ -10099,7 +10106,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15" thickBot="1">
+    <row r="266" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>550</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15" thickBot="1">
+    <row r="267" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>550</v>
       </c>
@@ -10145,7 +10152,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15" thickBot="1">
+    <row r="268" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>550</v>
       </c>
@@ -10168,7 +10175,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15" thickBot="1">
+    <row r="269" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>550</v>
       </c>
@@ -10191,7 +10198,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15" thickBot="1">
+    <row r="270" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>550</v>
       </c>
@@ -10214,7 +10221,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15" thickBot="1">
+    <row r="271" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>550</v>
       </c>
@@ -10237,7 +10244,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15" thickBot="1">
+    <row r="272" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>550</v>
       </c>
@@ -10260,7 +10267,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15" thickBot="1">
+    <row r="273" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>565</v>
       </c>
@@ -10285,7 +10292,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15" thickBot="1">
+    <row r="274" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>565</v>
       </c>
@@ -10308,7 +10315,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15" thickBot="1">
+    <row r="275" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>565</v>
       </c>
@@ -10331,7 +10338,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15" thickBot="1">
+    <row r="276" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>565</v>
       </c>
@@ -10354,242 +10361,242 @@
         <v>577</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>578</v>
       </c>
-      <c r="B277" s="34" t="s">
+      <c r="B277" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C277" s="34" t="str">
+      <c r="C277" s="36" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="D277" s="34" t="s">
+      <c r="D277" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E277" s="37" t="s">
+      <c r="E277" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="F277" s="37" t="s">
+      <c r="F277" s="34" t="s">
         <v>580</v>
       </c>
       <c r="G277" s="29" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>578</v>
       </c>
-      <c r="B278" s="35"/>
-      <c r="C278" s="35"/>
-      <c r="D278" s="35"/>
-      <c r="E278" s="38"/>
-      <c r="F278" s="38"/>
+      <c r="B278" s="38"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="38"/>
+      <c r="E278" s="39"/>
+      <c r="F278" s="39"/>
       <c r="G278" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>578</v>
       </c>
-      <c r="B279" s="35"/>
-      <c r="C279" s="35"/>
-      <c r="D279" s="35"/>
-      <c r="E279" s="38"/>
-      <c r="F279" s="38"/>
+      <c r="B279" s="38"/>
+      <c r="C279" s="38"/>
+      <c r="D279" s="38"/>
+      <c r="E279" s="39"/>
+      <c r="F279" s="39"/>
       <c r="G279" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15" thickBot="1">
+    <row r="280" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>578</v>
       </c>
-      <c r="B280" s="36"/>
-      <c r="C280" s="36"/>
-      <c r="D280" s="36"/>
-      <c r="E280" s="39"/>
-      <c r="F280" s="39"/>
+      <c r="B280" s="37"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="37"/>
+      <c r="E280" s="35"/>
+      <c r="F280" s="35"/>
       <c r="G280" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>578</v>
       </c>
-      <c r="B281" s="34" t="s">
+      <c r="B281" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C281" s="34" t="s">
+      <c r="C281" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D281" s="34" t="s">
+      <c r="D281" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E281" s="37" t="s">
+      <c r="E281" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="F281" s="37" t="s">
+      <c r="F281" s="34" t="s">
         <v>585</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>578</v>
       </c>
-      <c r="B282" s="35"/>
-      <c r="C282" s="35"/>
-      <c r="D282" s="35"/>
-      <c r="E282" s="38"/>
-      <c r="F282" s="38"/>
+      <c r="B282" s="38"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="39"/>
+      <c r="F282" s="39"/>
       <c r="G282" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>578</v>
       </c>
-      <c r="B283" s="35"/>
-      <c r="C283" s="35"/>
-      <c r="D283" s="35"/>
-      <c r="E283" s="38"/>
-      <c r="F283" s="38"/>
+      <c r="B283" s="38"/>
+      <c r="C283" s="38"/>
+      <c r="D283" s="38"/>
+      <c r="E283" s="39"/>
+      <c r="F283" s="39"/>
       <c r="G283" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15" thickBot="1">
+    <row r="284" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>578</v>
       </c>
-      <c r="B284" s="36"/>
-      <c r="C284" s="36"/>
-      <c r="D284" s="36"/>
-      <c r="E284" s="39"/>
-      <c r="F284" s="39"/>
+      <c r="B284" s="37"/>
+      <c r="C284" s="37"/>
+      <c r="D284" s="37"/>
+      <c r="E284" s="35"/>
+      <c r="F284" s="35"/>
       <c r="G284" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>578</v>
       </c>
-      <c r="B285" s="34" t="s">
+      <c r="B285" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C285" s="34" t="s">
+      <c r="C285" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D285" s="34" t="s">
+      <c r="D285" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E285" s="37" t="s">
+      <c r="E285" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="F285" s="37" t="s">
+      <c r="F285" s="34" t="s">
         <v>590</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>578</v>
       </c>
-      <c r="B286" s="35"/>
-      <c r="C286" s="35"/>
-      <c r="D286" s="35"/>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
+      <c r="B286" s="38"/>
+      <c r="C286" s="38"/>
+      <c r="D286" s="38"/>
+      <c r="E286" s="39"/>
+      <c r="F286" s="39"/>
       <c r="G286" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>578</v>
       </c>
-      <c r="B287" s="35"/>
-      <c r="C287" s="35"/>
-      <c r="D287" s="35"/>
-      <c r="E287" s="38"/>
-      <c r="F287" s="38"/>
+      <c r="B287" s="38"/>
+      <c r="C287" s="38"/>
+      <c r="D287" s="38"/>
+      <c r="E287" s="39"/>
+      <c r="F287" s="39"/>
       <c r="G287" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15" thickBot="1">
+    <row r="288" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>578</v>
       </c>
-      <c r="B288" s="36"/>
-      <c r="C288" s="36"/>
-      <c r="D288" s="36"/>
-      <c r="E288" s="39"/>
-      <c r="F288" s="39"/>
+      <c r="B288" s="37"/>
+      <c r="C288" s="37"/>
+      <c r="D288" s="37"/>
+      <c r="E288" s="35"/>
+      <c r="F288" s="35"/>
       <c r="G288" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>594</v>
       </c>
-      <c r="B289" s="34" t="s">
+      <c r="B289" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C289" s="34" t="str">
+      <c r="C289" s="36" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="D289" s="34" t="str">
+      <c r="D289" s="36" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="E289" s="37" t="s">
+      <c r="E289" s="34" t="s">
         <v>595</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="G289" s="37" t="s">
+      <c r="G289" s="34" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15" thickBot="1">
+    <row r="290" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>594</v>
       </c>
-      <c r="B290" s="36"/>
-      <c r="C290" s="36"/>
-      <c r="D290" s="36"/>
-      <c r="E290" s="39"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="37"/>
+      <c r="D290" s="37"/>
+      <c r="E290" s="35"/>
       <c r="F290" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="G290" s="39"/>
-    </row>
-    <row r="291" spans="1:7" ht="16">
+      <c r="G290" s="35"/>
+    </row>
+    <row r="291" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>594</v>
       </c>
-      <c r="B291" s="34" t="s">
+      <c r="B291" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="C291" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -10602,13 +10609,13 @@
         <v>604</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>594</v>
       </c>
-      <c r="B292" s="35"/>
-      <c r="C292" s="35"/>
-      <c r="D292" s="35"/>
+      <c r="B292" s="38"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="38"/>
       <c r="E292" s="3" t="s">
         <v>600</v>
       </c>
@@ -10619,30 +10626,30 @@
         <v>605</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15" thickBot="1">
+    <row r="293" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>594</v>
       </c>
-      <c r="B293" s="36"/>
-      <c r="C293" s="36"/>
-      <c r="D293" s="36"/>
+      <c r="B293" s="37"/>
+      <c r="C293" s="37"/>
+      <c r="D293" s="37"/>
       <c r="E293" s="12"/>
       <c r="F293" s="4" t="s">
         <v>603</v>
       </c>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>594</v>
       </c>
-      <c r="B294" s="34" t="s">
+      <c r="B294" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C294" s="34" t="s">
+      <c r="C294" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D294" s="34" t="s">
+      <c r="D294" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E294" s="3" t="s">
@@ -10655,13 +10662,13 @@
         <v>611</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>594</v>
       </c>
-      <c r="B295" s="35"/>
-      <c r="C295" s="35"/>
-      <c r="D295" s="35"/>
+      <c r="B295" s="38"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="38"/>
       <c r="E295" s="3" t="s">
         <v>607</v>
       </c>
@@ -10672,13 +10679,13 @@
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15" thickBot="1">
+    <row r="296" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>594</v>
       </c>
-      <c r="B296" s="36"/>
-      <c r="C296" s="36"/>
-      <c r="D296" s="36"/>
+      <c r="B296" s="37"/>
+      <c r="C296" s="37"/>
+      <c r="D296" s="37"/>
       <c r="E296" s="12"/>
       <c r="F296" s="4" t="s">
         <v>610</v>
@@ -10687,55 +10694,55 @@
         <v>613</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>614</v>
       </c>
-      <c r="B297" s="34" t="s">
+      <c r="B297" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C297" s="34" t="str">
+      <c r="C297" s="36" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="D297" s="34" t="str">
+      <c r="D297" s="36" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="E297" s="37" t="s">
+      <c r="E297" s="34" t="s">
         <v>615</v>
       </c>
       <c r="F297" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="G297" s="37" t="s">
+      <c r="G297" s="34" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15" thickBot="1">
+    <row r="298" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>614</v>
       </c>
-      <c r="B298" s="36"/>
-      <c r="C298" s="36"/>
-      <c r="D298" s="36"/>
-      <c r="E298" s="39"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="37"/>
+      <c r="D298" s="37"/>
+      <c r="E298" s="35"/>
       <c r="F298" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G298" s="39"/>
-    </row>
-    <row r="299" spans="1:7" ht="16">
+      <c r="G298" s="35"/>
+    </row>
+    <row r="299" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>614</v>
       </c>
-      <c r="B299" s="34" t="s">
+      <c r="B299" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="34" t="s">
+      <c r="C299" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D299" s="34" t="s">
+      <c r="D299" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E299" s="15" t="s">
@@ -10748,13 +10755,13 @@
         <v>623</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="16">
+    <row r="300" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>614</v>
       </c>
-      <c r="B300" s="35"/>
-      <c r="C300" s="35"/>
-      <c r="D300" s="35"/>
+      <c r="B300" s="38"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="38"/>
       <c r="E300" s="3" t="s">
         <v>619</v>
       </c>
@@ -10765,179 +10772,179 @@
         <v>624</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16">
+    <row r="301" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>614</v>
       </c>
-      <c r="B301" s="35"/>
-      <c r="C301" s="35"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="38"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="38"/>
       <c r="E301" s="16"/>
       <c r="F301" s="15" t="s">
         <v>621</v>
       </c>
       <c r="G301" s="16"/>
     </row>
-    <row r="302" spans="1:7" ht="15" thickBot="1">
+    <row r="302" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>614</v>
       </c>
-      <c r="B302" s="36"/>
-      <c r="C302" s="36"/>
-      <c r="D302" s="36"/>
+      <c r="B302" s="37"/>
+      <c r="C302" s="37"/>
+      <c r="D302" s="37"/>
       <c r="E302" s="12"/>
       <c r="F302" s="4" t="s">
         <v>622</v>
       </c>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>614</v>
       </c>
-      <c r="B303" s="34" t="s">
+      <c r="B303" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C303" s="34" t="s">
+      <c r="C303" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D303" s="34" t="s">
+      <c r="D303" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E303" s="37" t="s">
+      <c r="E303" s="34" t="s">
         <v>625</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="G303" s="37" t="s">
+      <c r="G303" s="34" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15" thickBot="1">
+    <row r="304" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>614</v>
       </c>
-      <c r="B304" s="36"/>
-      <c r="C304" s="36"/>
-      <c r="D304" s="36"/>
-      <c r="E304" s="39"/>
+      <c r="B304" s="37"/>
+      <c r="C304" s="37"/>
+      <c r="D304" s="37"/>
+      <c r="E304" s="35"/>
       <c r="F304" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G304" s="39"/>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="G304" s="35"/>
+    </row>
+    <row r="305" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>628</v>
       </c>
-      <c r="B305" s="34" t="s">
+      <c r="B305" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C305" s="34" t="str">
+      <c r="C305" s="36" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="D305" s="34" t="str">
+      <c r="D305" s="36" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="E305" s="37" t="s">
+      <c r="E305" s="34" t="s">
         <v>629</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="G305" s="37" t="s">
+      <c r="G305" s="34" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="17" thickBot="1">
+    <row r="306" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>628</v>
       </c>
-      <c r="B306" s="36"/>
-      <c r="C306" s="36"/>
-      <c r="D306" s="36"/>
-      <c r="E306" s="39"/>
+      <c r="B306" s="37"/>
+      <c r="C306" s="37"/>
+      <c r="D306" s="37"/>
+      <c r="E306" s="35"/>
       <c r="F306" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G306" s="39"/>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="G306" s="35"/>
+    </row>
+    <row r="307" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>628</v>
       </c>
-      <c r="B307" s="34" t="s">
+      <c r="B307" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D307" s="34" t="s">
+      <c r="D307" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E307" s="37" t="s">
+      <c r="E307" s="34" t="s">
         <v>632</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="G307" s="47" t="s">
+      <c r="G307" s="46" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="17" thickBot="1">
+    <row r="308" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>628</v>
       </c>
-      <c r="B308" s="36"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="36"/>
-      <c r="E308" s="39"/>
+      <c r="B308" s="37"/>
+      <c r="C308" s="37"/>
+      <c r="D308" s="37"/>
+      <c r="E308" s="35"/>
       <c r="F308" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="G308" s="48"/>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="G308" s="47"/>
+    </row>
+    <row r="309" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>628</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C309" s="34" t="s">
+      <c r="C309" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D309" s="34" t="s">
+      <c r="D309" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E309" s="37" t="s">
+      <c r="E309" s="34" t="s">
         <v>635</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="G309" s="47" t="s">
+      <c r="G309" s="46" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="17" thickBot="1">
+    <row r="310" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>628</v>
       </c>
-      <c r="B310" s="36"/>
-      <c r="C310" s="36"/>
-      <c r="D310" s="36"/>
-      <c r="E310" s="39"/>
+      <c r="B310" s="37"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="37"/>
+      <c r="E310" s="35"/>
       <c r="F310" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="G310" s="48"/>
-    </row>
-    <row r="311" spans="1:8" ht="15" thickBot="1">
+      <c r="G310" s="47"/>
+    </row>
+    <row r="311" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>639</v>
       </c>
@@ -10962,7 +10969,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15" thickBot="1">
+    <row r="312" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>639</v>
       </c>
@@ -10985,7 +10992,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15" thickBot="1">
+    <row r="313" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>639</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15" thickBot="1">
+    <row r="314" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>639</v>
       </c>
@@ -11031,7 +11038,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="57" thickBot="1">
+    <row r="315" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>649</v>
       </c>
@@ -11059,7 +11066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="85" thickBot="1">
+    <row r="316" spans="1:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>649</v>
       </c>
@@ -11082,7 +11089,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="85" thickBot="1">
+    <row r="317" spans="1:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>649</v>
       </c>
@@ -11105,7 +11112,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="85" thickBot="1">
+    <row r="318" spans="1:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>649</v>
       </c>
@@ -11128,7 +11135,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="17" thickBot="1">
+    <row r="319" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>663</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="17" thickBot="1">
+    <row r="320" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>663</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15" thickBot="1">
+    <row r="321" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>663</v>
       </c>
@@ -11199,238 +11206,238 @@
         <v>669</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>670</v>
       </c>
-      <c r="B322" s="34" t="s">
+      <c r="B322" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C322" s="34" t="str">
+      <c r="C322" s="36" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="D322" s="34" t="str">
+      <c r="D322" s="36" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="E322" s="37" t="s">
+      <c r="E322" s="34" t="s">
         <v>671</v>
       </c>
-      <c r="F322" s="37" t="s">
+      <c r="F322" s="34" t="s">
         <v>672</v>
       </c>
       <c r="G322" s="9" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="17" thickBot="1">
+    <row r="323" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>670</v>
       </c>
-      <c r="B323" s="36"/>
-      <c r="C323" s="36"/>
-      <c r="D323" s="36"/>
-      <c r="E323" s="39"/>
-      <c r="F323" s="39"/>
+      <c r="B323" s="37"/>
+      <c r="C323" s="37"/>
+      <c r="D323" s="37"/>
+      <c r="E323" s="35"/>
+      <c r="F323" s="35"/>
       <c r="G323" s="11" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>670</v>
       </c>
-      <c r="B324" s="34" t="s">
+      <c r="B324" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C324" s="34" t="s">
+      <c r="C324" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D324" s="34" t="s">
+      <c r="D324" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="E324" s="37" t="s">
+      <c r="E324" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="F324" s="37" t="s">
+      <c r="F324" s="34" t="s">
         <v>676</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="17" thickBot="1">
+    <row r="325" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>670</v>
       </c>
-      <c r="B325" s="36"/>
-      <c r="C325" s="36"/>
-      <c r="D325" s="36"/>
-      <c r="E325" s="39"/>
-      <c r="F325" s="39"/>
+      <c r="B325" s="37"/>
+      <c r="C325" s="37"/>
+      <c r="D325" s="37"/>
+      <c r="E325" s="35"/>
+      <c r="F325" s="35"/>
       <c r="G325" s="11" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>670</v>
       </c>
-      <c r="B326" s="34" t="s">
+      <c r="B326" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C326" s="34" t="s">
+      <c r="C326" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D326" s="34" t="s">
+      <c r="D326" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E326" s="37" t="s">
+      <c r="E326" s="34" t="s">
         <v>679</v>
       </c>
-      <c r="F326" s="37" t="s">
+      <c r="F326" s="34" t="s">
         <v>680</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="17" thickBot="1">
+    <row r="327" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>670</v>
       </c>
-      <c r="B327" s="36"/>
-      <c r="C327" s="36"/>
-      <c r="D327" s="36"/>
-      <c r="E327" s="39"/>
-      <c r="F327" s="39"/>
+      <c r="B327" s="37"/>
+      <c r="C327" s="37"/>
+      <c r="D327" s="37"/>
+      <c r="E327" s="35"/>
+      <c r="F327" s="35"/>
       <c r="G327" s="11" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>683</v>
       </c>
-      <c r="B328" s="34" t="s">
+      <c r="B328" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C328" s="34" t="str">
+      <c r="C328" s="36" t="str">
         <f t="shared" ref="C328:C387" si="10">IF(B328="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D328" s="34" t="str">
+      <c r="D328" s="36" t="str">
         <f t="shared" ref="D328:D387" si="11">IF(B328="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="F328" s="37" t="s">
+      <c r="F328" s="34" t="s">
         <v>686</v>
       </c>
-      <c r="G328" s="37" t="s">
+      <c r="G328" s="34" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15" thickBot="1">
+    <row r="329" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>683</v>
       </c>
-      <c r="B329" s="36"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="36"/>
+      <c r="B329" s="37"/>
+      <c r="C329" s="37"/>
+      <c r="D329" s="37"/>
       <c r="E329" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F329" s="39"/>
-      <c r="G329" s="39"/>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="F329" s="35"/>
+      <c r="G329" s="35"/>
+    </row>
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>683</v>
       </c>
-      <c r="B330" s="34" t="s">
+      <c r="B330" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C330" s="34" t="s">
+      <c r="C330" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D330" s="34" t="s">
+      <c r="D330" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="F330" s="37" t="s">
+      <c r="F330" s="34" t="s">
         <v>690</v>
       </c>
-      <c r="G330" s="37" t="s">
+      <c r="G330" s="34" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15" thickBot="1">
+    <row r="331" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>683</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
+      <c r="B331" s="37"/>
+      <c r="C331" s="37"/>
+      <c r="D331" s="37"/>
       <c r="E331" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F331" s="39"/>
-      <c r="G331" s="39"/>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="F331" s="35"/>
+      <c r="G331" s="35"/>
+    </row>
+    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>683</v>
       </c>
-      <c r="B332" s="34" t="s">
+      <c r="B332" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C332" s="34" t="s">
+      <c r="C332" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D332" s="34" t="s">
+      <c r="D332" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F332" s="37" t="s">
+      <c r="F332" s="34" t="s">
         <v>694</v>
       </c>
-      <c r="G332" s="37" t="s">
+      <c r="G332" s="34" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15" thickBot="1">
+    <row r="333" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>683</v>
       </c>
-      <c r="B333" s="36"/>
-      <c r="C333" s="36"/>
-      <c r="D333" s="36"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
       <c r="E333" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="F333" s="39"/>
-      <c r="G333" s="39"/>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="F333" s="35"/>
+      <c r="G333" s="35"/>
+    </row>
+    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>696</v>
       </c>
-      <c r="B334" s="34" t="s">
+      <c r="B334" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C334" s="34" t="str">
+      <c r="C334" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D334" s="34" t="str">
+      <c r="D334" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -11440,26 +11447,26 @@
       <c r="F334" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G334" s="37" t="s">
+      <c r="G334" s="34" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15" thickBot="1">
+    <row r="335" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>696</v>
       </c>
-      <c r="B335" s="36"/>
-      <c r="C335" s="36"/>
-      <c r="D335" s="36"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="37"/>
+      <c r="D335" s="37"/>
       <c r="E335" s="4" t="s">
         <v>698</v>
       </c>
       <c r="F335" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G335" s="39"/>
-    </row>
-    <row r="336" spans="1:7" ht="15" thickBot="1">
+      <c r="G335" s="35"/>
+    </row>
+    <row r="336" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>696</v>
       </c>
@@ -11482,7 +11489,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15" thickBot="1">
+    <row r="337" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>696</v>
       </c>
@@ -11505,7 +11512,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15" thickBot="1">
+    <row r="338" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>696</v>
       </c>
@@ -11528,22 +11535,22 @@
         <v>707</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>708</v>
       </c>
-      <c r="B339" s="34" t="s">
+      <c r="B339" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C339" s="34" t="str">
+      <c r="C339" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D339" s="34" t="str">
+      <c r="D339" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
-      <c r="E339" s="37" t="s">
+      <c r="E339" s="34" t="s">
         <v>709</v>
       </c>
       <c r="F339" s="9" t="s">
@@ -11553,14 +11560,14 @@
         <v>712</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15" thickBot="1">
+    <row r="340" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>708</v>
       </c>
-      <c r="B340" s="36"/>
-      <c r="C340" s="36"/>
-      <c r="D340" s="36"/>
-      <c r="E340" s="39"/>
+      <c r="B340" s="37"/>
+      <c r="C340" s="37"/>
+      <c r="D340" s="37"/>
+      <c r="E340" s="35"/>
       <c r="F340" s="4" t="s">
         <v>711</v>
       </c>
@@ -11568,17 +11575,17 @@
         <v>713</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>708</v>
       </c>
-      <c r="B341" s="34" t="s">
+      <c r="B341" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C341" s="34" t="s">
+      <c r="C341" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D341" s="34" t="s">
+      <c r="D341" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E341" s="3" t="s">
@@ -11587,161 +11594,161 @@
       <c r="F341" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="G341" s="37" t="s">
+      <c r="G341" s="34" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15" thickBot="1">
+    <row r="342" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>708</v>
       </c>
-      <c r="B342" s="36"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="36"/>
+      <c r="B342" s="37"/>
+      <c r="C342" s="37"/>
+      <c r="D342" s="37"/>
       <c r="E342" s="4" t="s">
         <v>715</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="G342" s="39"/>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="G342" s="35"/>
+    </row>
+    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>708</v>
       </c>
-      <c r="B343" s="34" t="s">
+      <c r="B343" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C343" s="34" t="s">
+      <c r="C343" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D343" s="34" t="s">
+      <c r="D343" s="36" t="s">
         <v>830</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F343" s="37" t="s">
+      <c r="F343" s="34" t="s">
         <v>720</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15" thickBot="1">
+    <row r="344" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>708</v>
       </c>
-      <c r="B344" s="36"/>
-      <c r="C344" s="36"/>
-      <c r="D344" s="36"/>
+      <c r="B344" s="37"/>
+      <c r="C344" s="37"/>
+      <c r="D344" s="37"/>
       <c r="E344" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="F344" s="39"/>
+      <c r="F344" s="35"/>
       <c r="G344" s="4" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>708</v>
       </c>
-      <c r="B345" s="34" t="s">
+      <c r="B345" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C345" s="34" t="s">
+      <c r="C345" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D345" s="34" t="s">
+      <c r="D345" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E345" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="F345" s="40" t="s">
+      <c r="F345" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="G345" s="40" t="s">
+      <c r="G345" s="43" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>708</v>
       </c>
-      <c r="B346" s="35"/>
-      <c r="C346" s="35"/>
-      <c r="D346" s="35"/>
+      <c r="B346" s="38"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="38"/>
       <c r="E346" s="13" t="s">
         <v>724</v>
       </c>
       <c r="F346" s="44"/>
       <c r="G346" s="44"/>
     </row>
-    <row r="347" spans="1:7" ht="15" thickBot="1">
+    <row r="347" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>708</v>
       </c>
-      <c r="B347" s="36"/>
-      <c r="C347" s="36"/>
-      <c r="D347" s="36"/>
+      <c r="B347" s="37"/>
+      <c r="C347" s="37"/>
+      <c r="D347" s="37"/>
       <c r="E347" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="F347" s="41"/>
-      <c r="G347" s="41"/>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="F347" s="45"/>
+      <c r="G347" s="45"/>
+    </row>
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>728</v>
       </c>
-      <c r="B348" s="34" t="s">
+      <c r="B348" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C348" s="34" t="str">
+      <c r="C348" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D348" s="34" t="str">
+      <c r="D348" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="F348" s="37" t="s">
+      <c r="F348" s="34" t="s">
         <v>731</v>
       </c>
-      <c r="G348" s="37" t="s">
+      <c r="G348" s="34" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15" thickBot="1">
+    <row r="349" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>728</v>
       </c>
-      <c r="B349" s="36"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="36"/>
+      <c r="B349" s="37"/>
+      <c r="C349" s="37"/>
+      <c r="D349" s="37"/>
       <c r="E349" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="F349" s="39"/>
-      <c r="G349" s="39"/>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="F349" s="35"/>
+      <c r="G349" s="35"/>
+    </row>
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>728</v>
       </c>
-      <c r="B350" s="34" t="s">
+      <c r="B350" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C350" s="34" t="s">
+      <c r="C350" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D350" s="34" t="s">
+      <c r="D350" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E350" s="3" t="s">
@@ -11750,49 +11757,49 @@
       <c r="F350" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="G350" s="37" t="s">
+      <c r="G350" s="34" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>728</v>
       </c>
-      <c r="B351" s="35"/>
-      <c r="C351" s="35"/>
-      <c r="D351" s="35"/>
+      <c r="B351" s="38"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="38"/>
       <c r="E351" s="3" t="s">
         <v>734</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G351" s="38"/>
-    </row>
-    <row r="352" spans="1:7" ht="15" thickBot="1">
+      <c r="G351" s="39"/>
+    </row>
+    <row r="352" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>728</v>
       </c>
-      <c r="B352" s="36"/>
-      <c r="C352" s="36"/>
-      <c r="D352" s="36"/>
+      <c r="B352" s="37"/>
+      <c r="C352" s="37"/>
+      <c r="D352" s="37"/>
       <c r="E352" s="4" t="s">
         <v>735</v>
       </c>
       <c r="F352" s="12"/>
-      <c r="G352" s="39"/>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="G352" s="35"/>
+    </row>
+    <row r="353" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>728</v>
       </c>
-      <c r="B353" s="34" t="s">
+      <c r="B353" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C353" s="34" t="s">
+      <c r="C353" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D353" s="34" t="s">
+      <c r="D353" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E353" s="3" t="s">
@@ -11801,149 +11808,149 @@
       <c r="F353" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="G353" s="37" t="s">
+      <c r="G353" s="34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>728</v>
       </c>
-      <c r="B354" s="35"/>
-      <c r="C354" s="35"/>
-      <c r="D354" s="35"/>
+      <c r="B354" s="38"/>
+      <c r="C354" s="38"/>
+      <c r="D354" s="38"/>
       <c r="E354" s="3" t="s">
         <v>740</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G354" s="38"/>
-    </row>
-    <row r="355" spans="1:7" ht="15" thickBot="1">
+      <c r="G354" s="39"/>
+    </row>
+    <row r="355" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>728</v>
       </c>
-      <c r="B355" s="36"/>
-      <c r="C355" s="36"/>
-      <c r="D355" s="36"/>
+      <c r="B355" s="37"/>
+      <c r="C355" s="37"/>
+      <c r="D355" s="37"/>
       <c r="E355" s="4" t="s">
         <v>741</v>
       </c>
       <c r="F355" s="12"/>
-      <c r="G355" s="39"/>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="G355" s="35"/>
+    </row>
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>745</v>
       </c>
-      <c r="B356" s="34" t="s">
+      <c r="B356" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C356" s="34" t="str">
+      <c r="C356" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D356" s="34" t="str">
+      <c r="D356" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="F356" s="37" t="s">
+      <c r="F356" s="34" t="s">
         <v>746</v>
       </c>
-      <c r="G356" s="42" t="s">
+      <c r="G356" s="40" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>745</v>
       </c>
-      <c r="B357" s="35"/>
-      <c r="C357" s="35"/>
-      <c r="D357" s="35"/>
+      <c r="B357" s="38"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="38"/>
       <c r="E357" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F357" s="38"/>
-      <c r="G357" s="49"/>
-    </row>
-    <row r="358" spans="1:7" ht="17" thickBot="1">
+      <c r="F357" s="39"/>
+      <c r="G357" s="41"/>
+    </row>
+    <row r="358" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>745</v>
       </c>
-      <c r="B358" s="36"/>
-      <c r="C358" s="36"/>
-      <c r="D358" s="36"/>
+      <c r="B358" s="37"/>
+      <c r="C358" s="37"/>
+      <c r="D358" s="37"/>
       <c r="E358" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="F358" s="39"/>
-      <c r="G358" s="43"/>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="F358" s="35"/>
+      <c r="G358" s="42"/>
+    </row>
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>745</v>
       </c>
-      <c r="B359" s="34" t="s">
+      <c r="B359" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C359" s="34" t="s">
+      <c r="C359" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D359" s="34" t="s">
+      <c r="D359" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F359" s="37" t="s">
+      <c r="F359" s="34" t="s">
         <v>750</v>
       </c>
-      <c r="G359" s="37" t="s">
+      <c r="G359" s="34" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>745</v>
       </c>
-      <c r="B360" s="35"/>
-      <c r="C360" s="35"/>
-      <c r="D360" s="35"/>
+      <c r="B360" s="38"/>
+      <c r="C360" s="38"/>
+      <c r="D360" s="38"/>
       <c r="E360" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F360" s="38"/>
-      <c r="G360" s="38"/>
-    </row>
-    <row r="361" spans="1:7" ht="17" thickBot="1">
+      <c r="F360" s="39"/>
+      <c r="G360" s="39"/>
+    </row>
+    <row r="361" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>745</v>
       </c>
-      <c r="B361" s="36"/>
-      <c r="C361" s="36"/>
-      <c r="D361" s="36"/>
+      <c r="B361" s="37"/>
+      <c r="C361" s="37"/>
+      <c r="D361" s="37"/>
       <c r="E361" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="F361" s="39"/>
-      <c r="G361" s="39"/>
-    </row>
-    <row r="362" spans="1:7" ht="16">
+      <c r="F361" s="35"/>
+      <c r="G361" s="35"/>
+    </row>
+    <row r="362" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>745</v>
       </c>
-      <c r="B362" s="34" t="s">
+      <c r="B362" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C362" s="34" t="s">
+      <c r="C362" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D362" s="34" t="s">
+      <c r="D362" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E362" s="3" t="s">
@@ -11956,13 +11963,13 @@
         <v>765</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16">
+    <row r="363" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>745</v>
       </c>
-      <c r="B363" s="35"/>
-      <c r="C363" s="35"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="38"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="38"/>
       <c r="E363" s="15" t="s">
         <v>755</v>
       </c>
@@ -11973,13 +11980,13 @@
         <v>766</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16">
+    <row r="364" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>745</v>
       </c>
-      <c r="B364" s="35"/>
-      <c r="C364" s="35"/>
-      <c r="D364" s="35"/>
+      <c r="B364" s="38"/>
+      <c r="C364" s="38"/>
+      <c r="D364" s="38"/>
       <c r="E364" s="15" t="s">
         <v>756</v>
       </c>
@@ -11990,85 +11997,85 @@
         <v>767</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>745</v>
       </c>
-      <c r="B365" s="35"/>
-      <c r="C365" s="35"/>
-      <c r="D365" s="35"/>
+      <c r="B365" s="38"/>
+      <c r="C365" s="38"/>
+      <c r="D365" s="38"/>
       <c r="E365" s="3" t="s">
         <v>757</v>
       </c>
       <c r="F365" s="16"/>
       <c r="G365" s="16"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>745</v>
       </c>
-      <c r="B366" s="35"/>
-      <c r="C366" s="35"/>
-      <c r="D366" s="35"/>
+      <c r="B366" s="38"/>
+      <c r="C366" s="38"/>
+      <c r="D366" s="38"/>
       <c r="E366" s="3" t="s">
         <v>758</v>
       </c>
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" ht="16">
+    <row r="367" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>745</v>
       </c>
-      <c r="B367" s="35"/>
-      <c r="C367" s="35"/>
-      <c r="D367" s="35"/>
+      <c r="B367" s="38"/>
+      <c r="C367" s="38"/>
+      <c r="D367" s="38"/>
       <c r="E367" s="15" t="s">
         <v>759</v>
       </c>
       <c r="F367" s="16"/>
       <c r="G367" s="16"/>
     </row>
-    <row r="368" spans="1:7" ht="16">
+    <row r="368" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>745</v>
       </c>
-      <c r="B368" s="35"/>
-      <c r="C368" s="35"/>
-      <c r="D368" s="35"/>
+      <c r="B368" s="38"/>
+      <c r="C368" s="38"/>
+      <c r="D368" s="38"/>
       <c r="E368" s="15" t="s">
         <v>760</v>
       </c>
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7" ht="16">
+    <row r="369" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>745</v>
       </c>
-      <c r="B369" s="35"/>
-      <c r="C369" s="35"/>
-      <c r="D369" s="35"/>
+      <c r="B369" s="38"/>
+      <c r="C369" s="38"/>
+      <c r="D369" s="38"/>
       <c r="E369" s="15" t="s">
         <v>761</v>
       </c>
       <c r="F369" s="16"/>
       <c r="G369" s="16"/>
     </row>
-    <row r="370" spans="1:7" ht="17" thickBot="1">
+    <row r="370" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>745</v>
       </c>
-      <c r="B370" s="36"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="36"/>
+      <c r="B370" s="37"/>
+      <c r="C370" s="37"/>
+      <c r="D370" s="37"/>
       <c r="E370" s="11" t="s">
         <v>762</v>
       </c>
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" ht="15" thickBot="1">
+    <row r="371" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>768</v>
       </c>
@@ -12093,7 +12100,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15" thickBot="1">
+    <row r="372" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>768</v>
       </c>
@@ -12116,43 +12123,43 @@
         <v>774</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>768</v>
       </c>
-      <c r="B373" s="34" t="s">
+      <c r="B373" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C373" s="34" t="s">
+      <c r="C373" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D373" s="34" t="s">
+      <c r="D373" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E373" s="37" t="s">
+      <c r="E373" s="34" t="s">
         <v>775</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="G373" s="37" t="s">
+      <c r="G373" s="34" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15" thickBot="1">
+    <row r="374" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>768</v>
       </c>
-      <c r="B374" s="36"/>
-      <c r="C374" s="36"/>
-      <c r="D374" s="36"/>
-      <c r="E374" s="39"/>
+      <c r="B374" s="37"/>
+      <c r="C374" s="37"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="35"/>
       <c r="F374" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="G374" s="39"/>
-    </row>
-    <row r="375" spans="1:7" ht="15" thickBot="1">
+      <c r="G374" s="35"/>
+    </row>
+    <row r="375" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>779</v>
       </c>
@@ -12177,7 +12184,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15" thickBot="1">
+    <row r="376" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>779</v>
       </c>
@@ -12200,7 +12207,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15" thickBot="1">
+    <row r="377" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>779</v>
       </c>
@@ -12223,17 +12230,17 @@
         <v>785</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>779</v>
       </c>
-      <c r="B378" s="34" t="s">
+      <c r="B378" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="34" t="s">
+      <c r="C378" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D378" s="34" t="s">
+      <c r="D378" s="36" t="s">
         <v>831</v>
       </c>
       <c r="E378" s="13" t="s">
@@ -12246,13 +12253,13 @@
         <v>788</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15" thickBot="1">
+    <row r="379" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>779</v>
       </c>
-      <c r="B379" s="36"/>
-      <c r="C379" s="36"/>
-      <c r="D379" s="36"/>
+      <c r="B379" s="37"/>
+      <c r="C379" s="37"/>
+      <c r="D379" s="37"/>
       <c r="E379" s="6" t="s">
         <v>787</v>
       </c>
@@ -12263,55 +12270,55 @@
         <v>789</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>790</v>
       </c>
-      <c r="B380" s="34" t="s">
+      <c r="B380" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C380" s="34" t="str">
+      <c r="C380" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D380" s="34" t="str">
+      <c r="D380" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
-      <c r="E380" s="37" t="s">
+      <c r="E380" s="34" t="s">
         <v>791</v>
       </c>
-      <c r="F380" s="37" t="s">
+      <c r="F380" s="34" t="s">
         <v>792</v>
       </c>
       <c r="G380" s="9" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15" thickBot="1">
+    <row r="381" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>790</v>
       </c>
-      <c r="B381" s="36"/>
-      <c r="C381" s="36"/>
-      <c r="D381" s="36"/>
-      <c r="E381" s="39"/>
-      <c r="F381" s="39"/>
+      <c r="B381" s="37"/>
+      <c r="C381" s="37"/>
+      <c r="D381" s="37"/>
+      <c r="E381" s="35"/>
+      <c r="F381" s="35"/>
       <c r="G381" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16">
+    <row r="382" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>790</v>
       </c>
-      <c r="B382" s="34" t="s">
+      <c r="B382" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C382" s="34" t="s">
+      <c r="C382" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D382" s="34" t="s">
+      <c r="D382" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E382" s="3" t="s">
@@ -12324,13 +12331,13 @@
         <v>799</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="17" thickBot="1">
+    <row r="383" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>790</v>
       </c>
-      <c r="B383" s="36"/>
-      <c r="C383" s="36"/>
-      <c r="D383" s="36"/>
+      <c r="B383" s="37"/>
+      <c r="C383" s="37"/>
+      <c r="D383" s="37"/>
       <c r="E383" s="11" t="s">
         <v>796</v>
       </c>
@@ -12341,7 +12348,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="17" thickBot="1">
+    <row r="384" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>790</v>
       </c>
@@ -12364,56 +12371,56 @@
         <v>803</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>790</v>
       </c>
-      <c r="B385" s="34" t="s">
+      <c r="B385" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="34" t="s">
+      <c r="C385" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D385" s="34" t="s">
+      <c r="D385" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F385" s="37" t="s">
+      <c r="F385" s="34" t="s">
         <v>806</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="17" thickBot="1">
+    <row r="386" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>790</v>
       </c>
-      <c r="B386" s="36"/>
-      <c r="C386" s="36"/>
-      <c r="D386" s="36"/>
+      <c r="B386" s="37"/>
+      <c r="C386" s="37"/>
+      <c r="D386" s="37"/>
       <c r="E386" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="F386" s="39"/>
+      <c r="F386" s="35"/>
       <c r="G386" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>809</v>
       </c>
-      <c r="B387" s="34" t="s">
+      <c r="B387" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C387" s="34" t="str">
+      <c r="C387" s="36" t="str">
         <f t="shared" si="10"/>
         <v>SI</v>
       </c>
-      <c r="D387" s="34" t="str">
+      <c r="D387" s="36" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -12427,13 +12434,13 @@
         <v>814</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15" thickBot="1">
+    <row r="388" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>809</v>
       </c>
-      <c r="B388" s="36"/>
-      <c r="C388" s="36"/>
-      <c r="D388" s="36"/>
+      <c r="B388" s="37"/>
+      <c r="C388" s="37"/>
+      <c r="D388" s="37"/>
       <c r="E388" s="4" t="s">
         <v>811</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15" thickBot="1">
+    <row r="389" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>809</v>
       </c>
@@ -12467,43 +12474,43 @@
         <v>818</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>809</v>
       </c>
-      <c r="B390" s="34" t="s">
+      <c r="B390" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C390" s="34" t="s">
+      <c r="C390" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D390" s="34" t="s">
+      <c r="D390" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="E390" s="37" t="s">
+      <c r="E390" s="34" t="s">
         <v>819</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="G390" s="37" t="s">
+      <c r="G390" s="34" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15" thickBot="1">
+    <row r="391" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>809</v>
       </c>
-      <c r="B391" s="36"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="36"/>
-      <c r="E391" s="39"/>
+      <c r="B391" s="37"/>
+      <c r="C391" s="37"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="35"/>
       <c r="F391" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="G391" s="39"/>
-    </row>
-    <row r="392" spans="1:7" ht="15" thickBot="1">
+      <c r="G391" s="35"/>
+    </row>
+    <row r="392" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>809</v>
       </c>
@@ -12528,23 +12535,498 @@
     </row>
   </sheetData>
   <mergeCells count="533">
-    <mergeCell ref="G390:G391"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="F385:F386"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="E380:E381"/>
-    <mergeCell ref="F380:F381"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="C387:C388"/>
-    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="D362:D370"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="D378:D379"/>
+    <mergeCell ref="D380:D381"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="D387:D388"/>
+    <mergeCell ref="D390:D391"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="D189:D192"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="D206:D208"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D161:D164"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="G226:G227"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="B244:B250"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C244:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="D244:D250"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="E277:E280"/>
+    <mergeCell ref="F277:F280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="E281:E284"/>
+    <mergeCell ref="F281:F284"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="E258:E260"/>
+    <mergeCell ref="F258:F260"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C277:C280"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="D262:D265"/>
+    <mergeCell ref="D277:D280"/>
+    <mergeCell ref="D281:D284"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="E297:E298"/>
+    <mergeCell ref="G297:G298"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="F285:F288"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="C285:C288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D285:D288"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="D291:D293"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="G309:G310"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="G303:G304"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="G305:G306"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="E324:E325"/>
+    <mergeCell ref="F324:F325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="E326:E327"/>
+    <mergeCell ref="F326:F327"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="E322:E323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="D324:D325"/>
+    <mergeCell ref="D326:D327"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="F332:F333"/>
+    <mergeCell ref="G332:G333"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="G334:G335"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="F328:F329"/>
+    <mergeCell ref="G328:G329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="F330:F331"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="B345:B347"/>
+    <mergeCell ref="F345:F347"/>
+    <mergeCell ref="G345:G347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="E339:E340"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="G341:G342"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="F343:F344"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C345:C347"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D339:D340"/>
+    <mergeCell ref="D341:D342"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D345:D347"/>
+    <mergeCell ref="D348:D349"/>
     <mergeCell ref="B359:B361"/>
     <mergeCell ref="F359:F361"/>
     <mergeCell ref="G359:G361"/>
@@ -12569,498 +13051,23 @@
     <mergeCell ref="D353:D355"/>
     <mergeCell ref="D356:D358"/>
     <mergeCell ref="D359:D361"/>
-    <mergeCell ref="B345:B347"/>
-    <mergeCell ref="F345:F347"/>
-    <mergeCell ref="G345:G347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="E339:E340"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="G341:G342"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="F343:F344"/>
-    <mergeCell ref="C339:C340"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C345:C347"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D339:D340"/>
-    <mergeCell ref="D341:D342"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D345:D347"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="F332:F333"/>
-    <mergeCell ref="G332:G333"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="G334:G335"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="F328:F329"/>
-    <mergeCell ref="G328:G329"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="F330:F331"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="E324:E325"/>
-    <mergeCell ref="F324:F325"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="E326:E327"/>
-    <mergeCell ref="F326:F327"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="E322:E323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="D324:D325"/>
-    <mergeCell ref="D326:D327"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="E309:E310"/>
-    <mergeCell ref="G309:G310"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="E303:E304"/>
-    <mergeCell ref="G303:G304"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="G305:G306"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="D309:D310"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="E297:E298"/>
-    <mergeCell ref="G297:G298"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="F285:F288"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="C285:C288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D285:D288"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="D291:D293"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="E277:E280"/>
-    <mergeCell ref="F277:F280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="E281:E284"/>
-    <mergeCell ref="F281:F284"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="E258:E260"/>
-    <mergeCell ref="F258:F260"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C277:C280"/>
-    <mergeCell ref="C281:C284"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="D262:D265"/>
-    <mergeCell ref="D277:D280"/>
-    <mergeCell ref="D281:D284"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="G253:G254"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="B244:B250"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C244:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="D244:D250"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="G226:G227"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="C189:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D161:D164"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="D362:D370"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="D378:D379"/>
-    <mergeCell ref="D380:D381"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="D387:D388"/>
-    <mergeCell ref="D390:D391"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="D189:D192"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="D206:D208"/>
+    <mergeCell ref="G390:G391"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="F385:F386"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="E380:E381"/>
+    <mergeCell ref="F380:F381"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="C390:C391"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13073,12 +13080,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13214,15 +13218,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5167ACAF-C885-481D-B0D2-11FF56304EA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA0098DB-51C0-48E5-AD07-EA1DCEC2309B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13246,17 +13261,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA0098DB-51C0-48E5-AD07-EA1DCEC2309B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5167ACAF-C885-481D-B0D2-11FF56304EA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d7a0fe5b-a0e3-48fe-bb6c-d0cdf05982f1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>